--- a/ModifiedAllYears.xlsx
+++ b/ModifiedAllYears.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="747">
   <si>
     <t>CVR</t>
   </si>
@@ -778,24 +778,114 @@
     <t>43387014 DANSK CAMPING UNION</t>
   </si>
   <si>
+    <t>31061350 VOLUBILL DANMARK ApS</t>
+  </si>
+  <si>
+    <t>61052615 Hovedstadens Ordblindefond</t>
+  </si>
+  <si>
+    <t>26042925 Bigtincan A/S</t>
+  </si>
+  <si>
+    <t>19196143 Eskelund ApS</t>
+  </si>
+  <si>
+    <t>30778510 TOKAI UNIVERSITY EUROPEAN CENTER</t>
+  </si>
+  <si>
+    <t>21124796 All Creative A/S</t>
+  </si>
+  <si>
+    <t>32318975 MENTOR DANMARK ApS</t>
+  </si>
+  <si>
+    <t>37501379 Garant Odense ApS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36202823 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27519245 </t>
+  </si>
+  <si>
     <t>36445874 Swire Renewable Energy A/S</t>
   </si>
   <si>
+    <t>27348645 Revenue Collection Systems Denmark ApS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36736941 </t>
+  </si>
+  <si>
+    <t>32786308 OTV PLAST A/S</t>
+  </si>
+  <si>
+    <t>89973511 H.J. HANSEN VIN A/S</t>
+  </si>
+  <si>
+    <t>35431179 Arvid Nilsson Sverige AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18778203 </t>
+  </si>
+  <si>
+    <t>32766013 NRG Denmark A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13238189 </t>
+  </si>
+  <si>
+    <t>10665744 INTERKET A/S</t>
+  </si>
+  <si>
+    <t>25491815 TREKANTENS DIAMANTSKÆRING ApS</t>
+  </si>
+  <si>
+    <t>32938051 CROWN WORLDWIDE ApS</t>
+  </si>
+  <si>
+    <t>26712610 VESTER KOPI ApS</t>
+  </si>
+  <si>
     <t>35531297 bygrowers A/S</t>
   </si>
   <si>
+    <t xml:space="preserve">31374227 </t>
+  </si>
+  <si>
+    <t>17380346 PRIVATBO, A.M.B.A. AF 1993</t>
+  </si>
+  <si>
+    <t>41956712 ROYAL UNIBREW A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38183532 </t>
+  </si>
+  <si>
     <t>27581781 DI-TEKNIK A/S</t>
   </si>
   <si>
     <t>10089751 Semler Agro A/S</t>
   </si>
   <si>
+    <t>36440414 SKAKO A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28298900 </t>
+  </si>
+  <si>
     <t>24233359 CBRAIN A/S</t>
   </si>
   <si>
     <t>19828131 CHEMOMETEC A/S</t>
   </si>
   <si>
+    <t>62774010 RICHARD THOMSEN A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46313313 </t>
+  </si>
+  <si>
     <t>13613575 LOUIS NIELSEN A/S</t>
   </si>
   <si>
@@ -805,36 +895,117 @@
     <t>31635268 PVH Brands Denmark ApS</t>
   </si>
   <si>
+    <t>38722557 EnterCard Danmark, filial af EnterCard Group AB, Sverige</t>
+  </si>
+  <si>
     <t>38307347 Scalepoint Technologies Denmark A/S</t>
   </si>
   <si>
     <t>14246045 JEUDAN A/S</t>
   </si>
   <si>
+    <t>19029484 PLAZA URE &amp; SMYKKER A/S</t>
+  </si>
+  <si>
     <t>62523417 FONDEN DBK</t>
   </si>
   <si>
     <t>29416796 Renta A/S</t>
   </si>
   <si>
+    <t>18995417 Dilf Dansk Indkøbs- og Logistik Forum</t>
+  </si>
+  <si>
+    <t>33808518 CEWE DANMARK ApS</t>
+  </si>
+  <si>
+    <t>15049847 OUTFIT INTERNATIONAL A/S</t>
+  </si>
+  <si>
+    <t>13859744 ZENITEL DENMARK A/S</t>
+  </si>
+  <si>
+    <t>42247030 Sodexo GSA A/S</t>
+  </si>
+  <si>
+    <t>63670928 EXPERIAN A/S</t>
+  </si>
+  <si>
     <t>18940884 HENNING LARSEN ARCHITECTS A/S</t>
   </si>
   <si>
+    <t>33438117 THUESEN JENSEN A/S</t>
+  </si>
+  <si>
+    <t>11026109 LaundryHouse ApS</t>
+  </si>
+  <si>
+    <t>32092284 HESSELHOLT FISK EKSPORT A/S</t>
+  </si>
+  <si>
+    <t>30830849 DEMATIC, FILIAL AF DEMATIC LIMITED, UK</t>
+  </si>
+  <si>
     <t>12561113 WÜRTH DANMARK A/S</t>
   </si>
   <si>
+    <t>29516308 ALTOR EQUITY PARTNERS A/S</t>
+  </si>
+  <si>
     <t>27652913 BETTER COLLECTIVE A/S</t>
   </si>
   <si>
+    <t>17729381 Ørslev Servicetrafik A/S</t>
+  </si>
+  <si>
+    <t>13591601 LM HUSE A/S</t>
+  </si>
+  <si>
     <t>16702943 KUNDE &amp; CO. A/S</t>
   </si>
   <si>
+    <t>27526357 LUMASENSE TECHNOLOGIES A/S</t>
+  </si>
+  <si>
+    <t>16664081 TRIPLAN INTERNATIONAL A/S</t>
+  </si>
+  <si>
     <t>16834017 DANSK ARBEJDSGIVERFORENING</t>
   </si>
   <si>
+    <t xml:space="preserve">15565802 </t>
+  </si>
+  <si>
+    <t>39884216 MBJ Cool ApS</t>
+  </si>
+  <si>
+    <t>16221341 METTLER-TOLEDO A/S</t>
+  </si>
+  <si>
+    <t>84550728 SCAN A/S</t>
+  </si>
+  <si>
+    <t>30567935 INORDVATIV A/S</t>
+  </si>
+  <si>
+    <t>69800211 DUNLOP HIFLEX A/S</t>
+  </si>
+  <si>
     <t>12279000 PRIESS A/S</t>
   </si>
   <si>
+    <t xml:space="preserve">11737803 </t>
+  </si>
+  <si>
+    <t>37016012 N. KJÆR BILCENTRET A/S, SVENDBORG</t>
+  </si>
+  <si>
+    <t>82861513 GRANBY PACK A/S</t>
+  </si>
+  <si>
+    <t>13895449 Home V/ Annette Rønne</t>
+  </si>
+  <si>
     <t>11826687 DANSK TRÆEMBALLAGE A/S</t>
   </si>
   <si>
@@ -844,21 +1015,84 @@
     <t>30832116 SKY-LIGHT A/S</t>
   </si>
   <si>
+    <t xml:space="preserve">34479089 </t>
+  </si>
+  <si>
+    <t>10521203 GLARMESTRE SNOER OG SØNNER A/S</t>
+  </si>
+  <si>
+    <t>32654533 INSERO A/S</t>
+  </si>
+  <si>
+    <t>56973311 LEMVIGH-MüLLER A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38537571 </t>
+  </si>
+  <si>
+    <t>12596774 SCANDIC HOTEL A/S</t>
+  </si>
+  <si>
+    <t>32258867 TTH HOLSTEBRO A/S</t>
+  </si>
+  <si>
+    <t>25213483 BASISFINANS A/S</t>
+  </si>
+  <si>
     <t>21672475 GTS NORDIC ApS</t>
   </si>
   <si>
     <t>19354598 BC CATERING ROSKILDE A/S</t>
   </si>
   <si>
+    <t xml:space="preserve">24256383 </t>
+  </si>
+  <si>
+    <t>40848517 Day Birger et Mikkelsen A/S</t>
+  </si>
+  <si>
     <t>15084790 RGS Nordic A/S</t>
   </si>
   <si>
+    <t>27511856 A/S HINDSGAVL</t>
+  </si>
+  <si>
+    <t>27887805 Bel Sverige AB</t>
+  </si>
+  <si>
     <t>17741519 REMA 1000 DANMARK A/S</t>
   </si>
   <si>
+    <t>42165913 SAN ELECTRO HEAT A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73192528 </t>
+  </si>
+  <si>
+    <t>25009037 EUC NORD</t>
+  </si>
+  <si>
+    <t>29310203 NIL TECHNOLOGY ApS</t>
+  </si>
+  <si>
+    <t>54757018 SVENDBORG MOTOR CO. A/S</t>
+  </si>
+  <si>
+    <t>30832124 Autocentralen.com Vejle A/S</t>
+  </si>
+  <si>
+    <t>21766488 ANTICIMEX A/S</t>
+  </si>
+  <si>
     <t>21599336 VP SECURITIES A/S</t>
   </si>
   <si>
+    <t xml:space="preserve">18509148 </t>
+  </si>
+  <si>
+    <t>36413557 Løgismose Group ApS</t>
+  </si>
+  <si>
     <t>19064301 Sanofi A/S</t>
   </si>
   <si>
@@ -868,30 +1102,159 @@
     <t>44839016 Frederikshavn Boligforening</t>
   </si>
   <si>
+    <t>75206828 IA Sprog</t>
+  </si>
+  <si>
+    <t>31936330 SEVERIN A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29687595 </t>
+  </si>
+  <si>
     <t>54879415 ROCKWOOL A/S</t>
   </si>
   <si>
+    <t xml:space="preserve">35255745 </t>
+  </si>
+  <si>
+    <t>42839213 CWI Denmark ApS</t>
+  </si>
+  <si>
+    <t>36079762 TELAVOX ApS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84228818 </t>
+  </si>
+  <si>
+    <t>57420510 DANSK AVISTRYK ApS</t>
+  </si>
+  <si>
     <t>15231599 DXC Technology Danmark A/S</t>
   </si>
   <si>
+    <t>39191903 Flex Wind A/S</t>
+  </si>
+  <si>
+    <t>28681011 V BUSINESS DEVELOPMENT A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27985017 </t>
+  </si>
+  <si>
+    <t>14450807 BOEHRINGER INGELHEIM DANMARK A/S</t>
+  </si>
+  <si>
+    <t>39192977 Combitech A/S</t>
+  </si>
+  <si>
+    <t>17930745 HUNDSBÆK &amp; HENRIKSEN A/S. RÅDGIVENDE INGENIØRER</t>
+  </si>
+  <si>
+    <t>56154515 Frie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15596104 </t>
+  </si>
+  <si>
+    <t>12938179 CHAS. HUDE A/S</t>
+  </si>
+  <si>
+    <t>13235686 ASCOM DANMARK A/S</t>
+  </si>
+  <si>
+    <t>39277298 Colosseum Økonomiadministration ApS</t>
+  </si>
+  <si>
+    <t>20309474 Ticketmaster Danmark A/S</t>
+  </si>
+  <si>
+    <t>17088289 CASINO MARIENLYST A/S</t>
+  </si>
+  <si>
+    <t>11394914 FORENEDE SERVICE A/S</t>
+  </si>
+  <si>
+    <t>20646411 Lloyd's Register EMEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28299494 </t>
+  </si>
+  <si>
+    <t>59866028 HAMMER TÆPPER A/S</t>
+  </si>
+  <si>
+    <t>15277203 TEKNOLOGIENS MEDIEHUS A/S</t>
+  </si>
+  <si>
     <t>25512979 BARFOED GROUP P/S</t>
   </si>
   <si>
+    <t>26623626 Personalhuset Danmark A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46300017 </t>
+  </si>
+  <si>
     <t>33084862 21-5 A/S</t>
   </si>
   <si>
     <t>77557318 PLANDENT A/S</t>
   </si>
   <si>
+    <t>56759514 LEO PHARMA A/S</t>
+  </si>
+  <si>
     <t>57392118 FÆLLESORG BOLIGFORENING</t>
   </si>
   <si>
     <t>79091812 TJELLESEN MAX JENNE A/S</t>
   </si>
   <si>
+    <t>28990790 WAOO A/S</t>
+  </si>
+  <si>
+    <t>83104813 SUN CHEMICAL INKS A/S</t>
+  </si>
+  <si>
+    <t>30616847 ABAK KLOAKSERVICE A/S</t>
+  </si>
+  <si>
+    <t>38136216 FRØRUP ANDELSKASSE</t>
+  </si>
+  <si>
+    <t>29929505 ABAK VVS ApS</t>
+  </si>
+  <si>
+    <t>12011814 HASSERIS BOLIGSELSKAB</t>
+  </si>
+  <si>
+    <t>47470811 HERBO-ADMINISTRATION A/S</t>
+  </si>
+  <si>
+    <t>12190212 DEN LILLE SKOLE</t>
+  </si>
+  <si>
+    <t>13246742 KENTAUR A/S</t>
+  </si>
+  <si>
+    <t>25652991 Pure Gym Denmark A/S</t>
+  </si>
+  <si>
+    <t>25971787 LATTEC I/S</t>
+  </si>
+  <si>
     <t>31058201 CBRE GWS Denmark ApS</t>
   </si>
   <si>
+    <t xml:space="preserve">28855990 </t>
+  </si>
+  <si>
+    <t>19555305 BAUHAUS DANMARK A/S</t>
+  </si>
+  <si>
+    <t>16092045 BABY DAN A/S</t>
+  </si>
+  <si>
     <t>17694707 ANDERSEN BILER A/S</t>
   </si>
   <si>
@@ -901,24 +1264,90 @@
     <t>10082366 LOOMIS DANMARK A/S</t>
   </si>
   <si>
+    <t>21582387 V. LØWENER A/S</t>
+  </si>
+  <si>
+    <t>36704608 OrderYOYO A/S</t>
+  </si>
+  <si>
+    <t>16049441 HAMLET PROTEIN A/S</t>
+  </si>
+  <si>
+    <t>32440975 GREENWAVE SYSTEMS ApS</t>
+  </si>
+  <si>
+    <t>12530633 NIKE DENMARK ApS</t>
+  </si>
+  <si>
     <t>19248615 JANSSEN-CILAG A/S</t>
   </si>
   <si>
+    <t>42268992 Hilding Anders Copenhagen A/S</t>
+  </si>
+  <si>
+    <t>32551335 MSC DENMARK A/S</t>
+  </si>
+  <si>
+    <t>19195597 UL INTERNATIONAL DEMKO A/S</t>
+  </si>
+  <si>
+    <t>28487150 SWEDBANK, FILIAL AF SWEDBANK AB (PUBL), SVERIGE</t>
+  </si>
+  <si>
+    <t>30607651 Umove Vest A/S</t>
+  </si>
+  <si>
     <t>25553489 3SHAPE A/S</t>
   </si>
   <si>
+    <t>46936728 XO CARE A/S</t>
+  </si>
+  <si>
+    <t>18788799 PARFUMS CHRISTIAN DIOR A/S</t>
+  </si>
+  <si>
+    <t>32775705 FLEXA4DREAMS A/S</t>
+  </si>
+  <si>
+    <t>30728726 ZLEEP HOTELS A/S</t>
+  </si>
+  <si>
+    <t>27351034 SPECIALISTERNE ApS</t>
+  </si>
+  <si>
+    <t>82647511 AOF Center Sjælland</t>
+  </si>
+  <si>
     <t>11794548 CATER FOOD A/S</t>
   </si>
   <si>
     <t>21852309 SKARE FOOD ApS</t>
   </si>
   <si>
+    <t>35802495 HEIMDAL SECURITY A/S</t>
+  </si>
+  <si>
     <t>26366321 DSV SOLUTIONS A/S</t>
   </si>
   <si>
+    <t>17038117 Lufthansa</t>
+  </si>
+  <si>
     <t>25340604 I.M. FRELLSEN K/S</t>
   </si>
   <si>
+    <t>36184779 Viatris ApS</t>
+  </si>
+  <si>
+    <t>34725101 NMP - NETWORK OF MUSIC PARTNERS A/S</t>
+  </si>
+  <si>
+    <t>24246361 HANDELSBANKEN, FILIAL AF SVENSKA HANDELSBANKEN AB (PUBL),SVERIGE</t>
+  </si>
+  <si>
+    <t>20309687 Knowit Experience Aarhus A/S</t>
+  </si>
+  <si>
     <t>34082200 KPMG ACOR TAX PARTNERSELSKAB</t>
   </si>
   <si>
@@ -928,21 +1357,81 @@
     <t>2,605</t>
   </si>
   <si>
+    <t>1,553</t>
+  </si>
+  <si>
+    <t>1,100</t>
+  </si>
+  <si>
+    <t>1,055</t>
+  </si>
+  <si>
+    <t>5,500</t>
+  </si>
+  <si>
+    <t>2,950</t>
+  </si>
+  <si>
+    <t>7,100</t>
+  </si>
+  <si>
+    <t>1,112</t>
+  </si>
+  <si>
+    <t>5,220</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>8,520</t>
   </si>
   <si>
-    <t>5,220</t>
+    <t>2,750</t>
+  </si>
+  <si>
+    <t>6,600</t>
+  </si>
+  <si>
+    <t>5,000</t>
+  </si>
+  <si>
+    <t>2,730</t>
+  </si>
+  <si>
+    <t>1,360</t>
+  </si>
+  <si>
+    <t>2,600</t>
+  </si>
+  <si>
+    <t>6,000</t>
+  </si>
+  <si>
+    <t>2,500</t>
+  </si>
+  <si>
+    <t>2,000</t>
+  </si>
+  <si>
+    <t>4,640</t>
   </si>
   <si>
     <t>4,600</t>
   </si>
   <si>
+    <t>5,600</t>
+  </si>
+  <si>
     <t>2,100</t>
   </si>
   <si>
     <t>3,450</t>
   </si>
   <si>
+    <t>8,220</t>
+  </si>
+  <si>
     <t>9,210</t>
   </si>
   <si>
@@ -952,58 +1441,154 @@
     <t>1,434</t>
   </si>
   <si>
+    <t>2,300</t>
+  </si>
+  <si>
     <t>1,260</t>
   </si>
   <si>
+    <t>1,453</t>
+  </si>
+  <si>
     <t>2,650</t>
   </si>
   <si>
+    <t>8,230</t>
+  </si>
+  <si>
+    <t>2,670</t>
+  </si>
+  <si>
+    <t>2,620</t>
+  </si>
+  <si>
     <t>1,620</t>
   </si>
   <si>
-    <t>6,000</t>
-  </si>
-  <si>
-    <t>1,253</t>
+    <t>2,690</t>
+  </si>
+  <si>
+    <t>7,730</t>
+  </si>
+  <si>
+    <t>8,800</t>
+  </si>
+  <si>
+    <t>1,130</t>
+  </si>
+  <si>
+    <t>1,250</t>
+  </si>
+  <si>
+    <t>6,710</t>
+  </si>
+  <si>
+    <t>2,635</t>
   </si>
   <si>
     <t>1,552</t>
   </si>
   <si>
+    <t>1,820</t>
+  </si>
+  <si>
+    <t>5,492</t>
+  </si>
+  <si>
+    <t>9,000</t>
+  </si>
+  <si>
     <t>7,830</t>
   </si>
   <si>
-    <t>5,600</t>
+    <t>5,700</t>
+  </si>
+  <si>
+    <t>4,800</t>
   </si>
   <si>
     <t>6,800</t>
   </si>
   <si>
+    <t>2,400</t>
+  </si>
+  <si>
+    <t>8,700</t>
+  </si>
+  <si>
+    <t>1,366</t>
+  </si>
+  <si>
+    <t>7,500</t>
+  </si>
+  <si>
+    <t>1,850</t>
+  </si>
+  <si>
     <t>4,000</t>
   </si>
   <si>
-    <t>2,300</t>
-  </si>
-  <si>
-    <t>8,700</t>
+    <t>1,268</t>
+  </si>
+  <si>
+    <t>3,230</t>
+  </si>
+  <si>
+    <t>9,800</t>
+  </si>
+  <si>
+    <t>2,800</t>
   </si>
   <si>
     <t>1,402</t>
   </si>
   <si>
+    <t>5,672</t>
+  </si>
+  <si>
     <t>1,165</t>
   </si>
   <si>
     <t>9,900</t>
   </si>
   <si>
+    <t>1,700</t>
+  </si>
+  <si>
     <t>2,640</t>
   </si>
   <si>
-    <t>2,500</t>
-  </si>
-  <si>
-    <t>5,000</t>
+    <t>1,799</t>
+  </si>
+  <si>
+    <t>8,000</t>
+  </si>
+  <si>
+    <t>7,323</t>
+  </si>
+  <si>
+    <t>1,613</t>
+  </si>
+  <si>
+    <t>1,411</t>
+  </si>
+  <si>
+    <t>2,665</t>
+  </si>
+  <si>
+    <t>2,900</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>7,400</t>
+  </si>
+  <si>
+    <t>1,560</t>
+  </si>
+  <si>
+    <t>1,151</t>
   </si>
   <si>
     <t>2,970</t>
@@ -1018,22 +1603,43 @@
     <t>2,630</t>
   </si>
   <si>
+    <t>8,381</t>
+  </si>
+  <si>
+    <t>5,871</t>
+  </si>
+  <si>
+    <t>1,572</t>
+  </si>
+  <si>
+    <t>7,000</t>
+  </si>
+  <si>
+    <t>8,670</t>
+  </si>
+  <si>
     <t>2,860</t>
   </si>
   <si>
-    <t>9,800</t>
-  </si>
-  <si>
     <t>3,460</t>
   </si>
   <si>
+    <t>7,760</t>
+  </si>
+  <si>
     <t>1,060</t>
   </si>
   <si>
-    <t>6,600</t>
-  </si>
-  <si>
-    <t>2,900</t>
+    <t>4,300</t>
+  </si>
+  <si>
+    <t>1,606</t>
+  </si>
+  <si>
+    <t>2,770</t>
+  </si>
+  <si>
+    <t>1,561</t>
   </si>
   <si>
     <t>Hirtshals</t>
@@ -1042,55 +1648,148 @@
     <t>Brøndby</t>
   </si>
   <si>
+    <t>København V</t>
+  </si>
+  <si>
+    <t>København K</t>
+  </si>
+  <si>
+    <t>Middelfart</t>
+  </si>
+  <si>
+    <t>Vedbæk</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Odense SØ</t>
+  </si>
+  <si>
     <t>Lystrup</t>
   </si>
   <si>
-    <t>Odense SØ</t>
+    <t>Ballerup</t>
+  </si>
+  <si>
+    <t>Vejen</t>
+  </si>
+  <si>
+    <t>Odense C</t>
+  </si>
+  <si>
+    <t>Herlev</t>
+  </si>
+  <si>
+    <t>Glostrup</t>
+  </si>
+  <si>
+    <t>Kolding</t>
+  </si>
+  <si>
+    <t>Valby</t>
+  </si>
+  <si>
+    <t>Frederiksberg</t>
+  </si>
+  <si>
+    <t>Faxe</t>
   </si>
   <si>
     <t>Køge</t>
   </si>
   <si>
+    <t>Faaborg</t>
+  </si>
+  <si>
     <t>København Ø</t>
   </si>
   <si>
     <t>Allerød</t>
   </si>
   <si>
+    <t>Brabrand</t>
+  </si>
+  <si>
     <t>Aalborg SØ</t>
   </si>
   <si>
     <t>Karup J</t>
   </si>
   <si>
-    <t>København K</t>
+    <t>København S</t>
   </si>
   <si>
     <t>Hvidovre</t>
   </si>
   <si>
-    <t>København V</t>
-  </si>
-  <si>
-    <t>Kolding</t>
+    <t>Åbyhøj</t>
+  </si>
+  <si>
+    <t>Greve</t>
+  </si>
+  <si>
+    <t>Albertslund</t>
+  </si>
+  <si>
+    <t>Karlslunde</t>
+  </si>
+  <si>
+    <t>Hanstholm</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Esbjerg V</t>
+  </si>
+  <si>
+    <t>Ishøj</t>
+  </si>
+  <si>
+    <t>Frederiksberg C</t>
+  </si>
+  <si>
+    <t>Vissenbjerg</t>
+  </si>
+  <si>
+    <t>Aalborg</t>
   </si>
   <si>
     <t>Vinderup</t>
   </si>
   <si>
-    <t>Faaborg</t>
+    <t>Svendborg</t>
+  </si>
+  <si>
+    <t>Nykøbing F</t>
   </si>
   <si>
     <t>Varde</t>
   </si>
   <si>
+    <t>København NV</t>
+  </si>
+  <si>
+    <t>Horsens</t>
+  </si>
+  <si>
+    <t>Holstebro</t>
+  </si>
+  <si>
     <t>Roskilde</t>
   </si>
   <si>
-    <t>København S</t>
-  </si>
-  <si>
-    <t>Horsens</t>
+    <t>Græsted</t>
+  </si>
+  <si>
+    <t>Hjørring</t>
+  </si>
+  <si>
+    <t>Kongens Lyngby</t>
+  </si>
+  <si>
+    <t>Broby</t>
   </si>
   <si>
     <t>Frederikshavn</t>
@@ -1099,10 +1798,22 @@
     <t>Hedehusene</t>
   </si>
   <si>
-    <t>Valby</t>
-  </si>
-  <si>
-    <t>Odense C</t>
+    <t>Aarhus C</t>
+  </si>
+  <si>
+    <t>Give</t>
+  </si>
+  <si>
+    <t>Vallensbæk Strand</t>
+  </si>
+  <si>
+    <t>Hellerup</t>
+  </si>
+  <si>
+    <t>Helsingør</t>
+  </si>
+  <si>
+    <t>Herning</t>
   </si>
   <si>
     <t>Hørsholm</t>
@@ -1117,19 +1828,34 @@
     <t>Taastrup</t>
   </si>
   <si>
+    <t>Tilst</t>
+  </si>
+  <si>
+    <t>Frørup</t>
+  </si>
+  <si>
+    <t>Kgs.Lyngby</t>
+  </si>
+  <si>
+    <t>Fredericia</t>
+  </si>
+  <si>
+    <t>Låsby</t>
+  </si>
+  <si>
     <t>Søborg</t>
   </si>
   <si>
-    <t>Hjørring</t>
-  </si>
-  <si>
     <t>Birkerød</t>
   </si>
   <si>
-    <t>Vejen</t>
-  </si>
-  <si>
-    <t>Hellerup</t>
+    <t>Hurup Thy</t>
+  </si>
+  <si>
+    <t>Holbæk</t>
+  </si>
+  <si>
+    <t>Kastrup</t>
   </si>
   <si>
     <t>Transport og godshåndtering</t>
@@ -1138,31 +1864,40 @@
     <t>Andre serviceydelser</t>
   </si>
   <si>
+    <t>Information og kommunikation</t>
+  </si>
+  <si>
+    <t>Undervisning</t>
+  </si>
+  <si>
+    <t>Landbrug, jagt, skovbrug og fiskeri</t>
+  </si>
+  <si>
     <t>Fremstillingsvirksomhed</t>
   </si>
   <si>
-    <t>Landbrug, jagt, skovbrug og fiskeri</t>
+    <t>Engroshandel og detailhandel; reparation af motorkøretøjer og motorcykler</t>
+  </si>
+  <si>
+    <t>Administrative tjenesteydelser og hjælpetjenester</t>
   </si>
   <si>
     <t>Bygge- og anlægsvirksomhed</t>
   </si>
   <si>
-    <t>Engroshandel og detailhandel; reparation af motorkøretøjer og motorcykler</t>
-  </si>
-  <si>
-    <t>Information og kommunikation</t>
+    <t>Fast ejendom</t>
+  </si>
+  <si>
+    <t>Pengeinstitut- og finansvirksomhed, forsikring</t>
   </si>
   <si>
     <t>Liberale, videnskabelige og tekniske tjenesteydelser</t>
   </si>
   <si>
-    <t>Administrative tjenesteydelser og hjælpetjenester</t>
-  </si>
-  <si>
-    <t>Pengeinstitut- og finansvirksomhed, forsikring</t>
-  </si>
-  <si>
-    <t>Fast ejendom</t>
+    <t>Overnatningsfaciliteter og restaurationsvirksomhed</t>
+  </si>
+  <si>
+    <t>Kultur, forlystelser og sport</t>
   </si>
   <si>
     <t>Vandforsyning; kloakvæsen, affaldshåndtering og rensning af jord og grundvand</t>
@@ -1174,24 +1909,75 @@
     <t>Andre organisationer og foreninger i.a.n.</t>
   </si>
   <si>
+    <t>Computerprogrammering</t>
+  </si>
+  <si>
+    <t>Anden undervisning i.a.n.</t>
+  </si>
+  <si>
+    <t>Produktion af slagtesvin</t>
+  </si>
+  <si>
+    <t>Fremstilling af andre færdige metalprodukter i.a.n.</t>
+  </si>
+  <si>
+    <t>Detailhandel med tæpper, vægbeklædning og gulvbelægning</t>
+  </si>
+  <si>
     <t>Fremstilling af vindmøller og dele hertil</t>
   </si>
   <si>
+    <t>Stationer, godsterminaler mv.</t>
+  </si>
+  <si>
+    <t>Fremstilling af andre plastprodukter</t>
+  </si>
+  <si>
+    <t>Engroshandel med vin og spiritus</t>
+  </si>
+  <si>
+    <t>Engroshandel med isenkram, varmeanlæg og tilbehør</t>
+  </si>
+  <si>
+    <t>Vikarbureauer</t>
+  </si>
+  <si>
+    <t>Fremstilling af andre papir- og papvarer</t>
+  </si>
+  <si>
+    <t>Anden bygge- og anlægsvirksomhed, som kræver specialisering</t>
+  </si>
+  <si>
+    <t>Anden forretningsservice i.a.n.</t>
+  </si>
+  <si>
+    <t>Fotokopiering, dokumentbehandling og anden specialiseret kontorservice</t>
+  </si>
+  <si>
     <t>Planteformering</t>
   </si>
   <si>
+    <t>Administration af fast ejendom på kontraktbasis</t>
+  </si>
+  <si>
+    <t>Fremstilling af øl</t>
+  </si>
+  <si>
     <t>El-installation</t>
   </si>
   <si>
     <t>Engroshandel med landbrugsmaskiner, -udstyr og tilbehør hertil</t>
   </si>
   <si>
-    <t>Computerprogrammering</t>
+    <t>Ikke-finansielle holdingselskaber</t>
   </si>
   <si>
     <t>Anden måling og teknisk analyse</t>
   </si>
   <si>
+    <t>Fremstilling af metalkonstruktioner og dele heraf</t>
+  </si>
+  <si>
     <t>Kombinerede administrationsserviceydelser</t>
   </si>
   <si>
@@ -1201,76 +1987,217 @@
     <t>Tøjforretninger</t>
   </si>
   <si>
+    <t>Banker, sparekasser og andelskasser</t>
+  </si>
+  <si>
     <t>Andre hjælpetjenester i forbindelse med finansiel formidling</t>
   </si>
   <si>
     <t>Udlejning af erhvervsejendomme</t>
   </si>
   <si>
+    <t>Detailhandel med ure, smykker og guld- og sølvvarer</t>
+  </si>
+  <si>
     <t>Pakkerier</t>
   </si>
   <si>
     <t>Udlejning og leasing af entreprenørmateriel</t>
   </si>
   <si>
+    <t>Faglige sammenslutninger</t>
+  </si>
+  <si>
+    <t>Fotografisk virksomhed</t>
+  </si>
+  <si>
+    <t>Engroshandel med cykler, sportsartikler og lystbåde</t>
+  </si>
+  <si>
+    <t>Anden telekommunikation</t>
+  </si>
+  <si>
+    <t>Kombinerede serviceydelser</t>
+  </si>
+  <si>
+    <t>Inkassovirksomhed og kreditoplysning</t>
+  </si>
+  <si>
     <t>Arkitektvirksomhed</t>
   </si>
   <si>
+    <t>Engroshandel med porcelæns- og glasvarer</t>
+  </si>
+  <si>
+    <t>Engroshandel med andre maskiner og andet udstyr</t>
+  </si>
+  <si>
+    <t>Forarbejdning og konservering af fisk, krebsdyr og bløddyr, undtagen fiskemel</t>
+  </si>
+  <si>
     <t>Engroshandel med værktøjsmaskiner</t>
   </si>
   <si>
     <t>Anden udgivelse af software</t>
   </si>
   <si>
+    <t>Turistkørsel og anden landpassagertransport</t>
+  </si>
+  <si>
+    <t>Opførelse af bygninger</t>
+  </si>
+  <si>
     <t>Reklamebureauer</t>
   </si>
   <si>
+    <t>Fremstilling af udstyr til måling, afprøvning, navigation og kontrol</t>
+  </si>
+  <si>
     <t>Erhvervs- og arbejdsgiverorganisationer</t>
   </si>
   <si>
-    <t>Fremstilling af metalkonstruktioner og dele heraf</t>
+    <t>Leasing af intellektuelle ejendomsrettigheder og lignende, dog ikke ophavsretsbeskyttede værker</t>
+  </si>
+  <si>
+    <t>Engroshandel med andre husholdningsartikler</t>
+  </si>
+  <si>
+    <t>Servicestationer</t>
+  </si>
+  <si>
+    <t>Ikke-specialiseret engroshandel</t>
+  </si>
+  <si>
+    <t>Detailhandel med personbiler, varebiler og minibusser</t>
   </si>
   <si>
     <t>Fremstilling af træemballage</t>
   </si>
   <si>
+    <t>Ejendomsmæglere mv.</t>
+  </si>
+  <si>
     <t>Andre post- og kurertjenester</t>
   </si>
   <si>
     <t>Fremstilling af plader, ark, rør og slanger samt profiler af plast</t>
   </si>
   <si>
+    <t>Glarmestervirksomhed</t>
+  </si>
+  <si>
     <t>Virksomhedsrådgivning og anden rådgivning om driftsledelse</t>
   </si>
   <si>
+    <t>Engroshandel med metaller og metalmalme</t>
+  </si>
+  <si>
+    <t>Hoteller</t>
+  </si>
+  <si>
+    <t>Andre sportsaktiviteter</t>
+  </si>
+  <si>
+    <t>Andre kreditselskaber</t>
+  </si>
+  <si>
     <t>Ikke-specialiseret engroshandel med føde-, drikke- og tobaksvarer</t>
   </si>
   <si>
     <t>Genbrug af sorterede materialer</t>
   </si>
   <si>
+    <t>Konferencecentre og kursusejendomme</t>
+  </si>
+  <si>
+    <t>Fremstilling af andet elektrisk udstyr</t>
+  </si>
+  <si>
+    <t>Tekniske skoler og fagskoler</t>
+  </si>
+  <si>
+    <t>Rådgivende ingeniørvirksomhed inden for produktions- og maskinteknik</t>
+  </si>
+  <si>
+    <t>Anden finansiel formidling undtagen forsikring og pensionsforsikring, i.a.n.</t>
+  </si>
+  <si>
+    <t>Andre rengøringsydelser</t>
+  </si>
+  <si>
     <t>Engroshandel med medicinalvarer og sygeplejeartikler</t>
   </si>
   <si>
-    <t>Administration af fast ejendom på kontraktbasis</t>
-  </si>
-  <si>
     <t>Almennyttige boligselskaber</t>
   </si>
   <si>
     <t>Ikke-finansielle hovedsæders virksomhed</t>
   </si>
   <si>
+    <t>Udlejning og leasing af andet materiel, udstyr og andre materielle aktiver i.a.n.</t>
+  </si>
+  <si>
     <t>Computer facility management</t>
   </si>
   <si>
-    <t>Ejendomsmæglere mv.</t>
+    <t>Konsulentbistand vedrørende informationsteknologi</t>
+  </si>
+  <si>
+    <t>Rådgivende ingeniørvirksomhed inden for byggeri og anlægsarbejder</t>
+  </si>
+  <si>
+    <t>Fagforeninger</t>
+  </si>
+  <si>
+    <t>Andre liberale, videnskabelige og tekniske tjenesteydelser i.a.n.</t>
+  </si>
+  <si>
+    <t>Andre reservationstjenesteydelser og tjenesteydelser i forbindelse hermed</t>
+  </si>
+  <si>
+    <t>Lotteri- og anden spillevirksomhed</t>
+  </si>
+  <si>
+    <t>Almindelig rengøring i bygninger</t>
+  </si>
+  <si>
+    <t>Fremstilling af tæpper</t>
+  </si>
+  <si>
+    <t>Udgivelse af ugeblade og magasiner</t>
   </si>
   <si>
     <t>Engroshandel med læge- og hospitalsartikler</t>
   </si>
   <si>
-    <t>Detailhandel med personbiler, varebiler og minibusser</t>
+    <t>Fremstilling af farmaceutiske præparater</t>
+  </si>
+  <si>
+    <t>Fastnetbaseret telekommunikation</t>
+  </si>
+  <si>
+    <t>Engroshandel med andre råvarer og halvfabrikata</t>
+  </si>
+  <si>
+    <t>Anlæg af ledningsnet til væsker</t>
+  </si>
+  <si>
+    <t>VVS- og blikkenslagerforretninger</t>
+  </si>
+  <si>
+    <t>Folkeskoler o.lign.</t>
+  </si>
+  <si>
+    <t>Engroshandel med beklædning</t>
+  </si>
+  <si>
+    <t>Fitnesscentre</t>
+  </si>
+  <si>
+    <t>Anden forskning og eksperimentel udvikling inden for naturvidenskab og teknik</t>
+  </si>
+  <si>
+    <t>Byggemarkeder og værktøjsmagasiner</t>
   </si>
   <si>
     <t>Fremstilling af planglas</t>
@@ -1279,13 +2206,43 @@
     <t>Private vagt- og sikkerhedstjenester</t>
   </si>
   <si>
+    <t>Fremstilling af færdige foderblandinger til landbrugsdyr</t>
+  </si>
+  <si>
+    <t>Databehandling, webhosting og lignende serviceydelser</t>
+  </si>
+  <si>
+    <t>Møbelforretninger</t>
+  </si>
+  <si>
+    <t>Speditører</t>
+  </si>
+  <si>
+    <t>Rutebuskørsel, by- og nærtrafik</t>
+  </si>
+  <si>
+    <t>Fremstilling af medicinske og dentale instrumenter samt udstyr hertil</t>
+  </si>
+  <si>
+    <t>Engroshandel med parfumerivarer og kosmetik</t>
+  </si>
+  <si>
+    <t>Engroshandel med møbler, tæpper og belysningsartikler</t>
+  </si>
+  <si>
+    <t>Ungdoms- og efterskoler</t>
+  </si>
+  <si>
     <t>Engroshandel med kød og kødprodukter</t>
   </si>
   <si>
     <t>Produktion af kød- og fjerkrækødprodukter</t>
   </si>
   <si>
-    <t>Speditører</t>
+    <t>Serviceydelser i forbindelse med sikkerhedssystemer</t>
+  </si>
+  <si>
+    <t>Ruteflyvning</t>
   </si>
   <si>
     <t>Detailhandel med brød, konditori- og sukkervarer</t>
@@ -1744,22 +2701,22 @@
         <v>252</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
-        <v>340</v>
+        <v>542</v>
       </c>
       <c r="L2" t="s">
-        <v>372</v>
+        <v>614</v>
       </c>
       <c r="M2" t="s">
-        <v>384</v>
+        <v>629</v>
       </c>
       <c r="N2" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O2">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1791,19 +2748,19 @@
         <v>253</v>
       </c>
       <c r="J3" t="s">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="K3" t="s">
-        <v>341</v>
+        <v>543</v>
       </c>
       <c r="L3" t="s">
-        <v>373</v>
+        <v>615</v>
       </c>
       <c r="M3" t="s">
-        <v>385</v>
+        <v>630</v>
       </c>
       <c r="O3">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="P3">
         <v>111</v>
@@ -1834,6 +2791,24 @@
       <c r="H4" t="s">
         <v>243</v>
       </c>
+      <c r="I4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K4" t="s">
+        <v>544</v>
+      </c>
+      <c r="L4" t="s">
+        <v>616</v>
+      </c>
+      <c r="M4" t="s">
+        <v>631</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
       <c r="P4">
         <v>2</v>
       </c>
@@ -1863,6 +2838,24 @@
       <c r="H5" t="s">
         <v>244</v>
       </c>
+      <c r="I5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L5" t="s">
+        <v>617</v>
+      </c>
+      <c r="M5" t="s">
+        <v>632</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <v>14</v>
       </c>
@@ -1892,6 +2885,24 @@
       <c r="H6" t="s">
         <v>245</v>
       </c>
+      <c r="I6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K6" t="s">
+        <v>545</v>
+      </c>
+      <c r="L6" t="s">
+        <v>616</v>
+      </c>
+      <c r="M6" t="s">
+        <v>631</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
       <c r="P6">
         <v>81</v>
       </c>
@@ -1921,6 +2932,24 @@
       <c r="H7" t="s">
         <v>245</v>
       </c>
+      <c r="I7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L7" t="s">
+        <v>618</v>
+      </c>
+      <c r="M7" t="s">
+        <v>633</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <v>2</v>
       </c>
@@ -1950,6 +2979,24 @@
       <c r="H8" t="s">
         <v>243</v>
       </c>
+      <c r="I8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J8" t="s">
+        <v>451</v>
+      </c>
+      <c r="K8" t="s">
+        <v>547</v>
+      </c>
+      <c r="L8" t="s">
+        <v>615</v>
+      </c>
+      <c r="M8" t="s">
+        <v>630</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
       <c r="P8">
         <v>3</v>
       </c>
@@ -1979,6 +3026,24 @@
       <c r="H9" t="s">
         <v>245</v>
       </c>
+      <c r="I9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K9" t="s">
+        <v>548</v>
+      </c>
+      <c r="L9" t="s">
+        <v>619</v>
+      </c>
+      <c r="M9" t="s">
+        <v>634</v>
+      </c>
+      <c r="O9">
+        <v>55</v>
+      </c>
       <c r="P9">
         <v>37</v>
       </c>
@@ -2008,6 +3073,24 @@
       <c r="H10" t="s">
         <v>243</v>
       </c>
+      <c r="I10" t="s">
+        <v>260</v>
+      </c>
+      <c r="J10" t="s">
+        <v>453</v>
+      </c>
+      <c r="K10" t="s">
+        <v>545</v>
+      </c>
+      <c r="L10" t="s">
+        <v>617</v>
+      </c>
+      <c r="M10" t="s">
+        <v>632</v>
+      </c>
+      <c r="O10">
+        <v>1487</v>
+      </c>
       <c r="P10">
         <v>58</v>
       </c>
@@ -2037,6 +3120,24 @@
       <c r="H11" t="s">
         <v>245</v>
       </c>
+      <c r="I11" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" t="s">
+        <v>620</v>
+      </c>
+      <c r="M11" t="s">
+        <v>635</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
       <c r="P11">
         <v>12</v>
       </c>
@@ -2066,6 +3167,15 @@
       <c r="H12" t="s">
         <v>245</v>
       </c>
+      <c r="I12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" t="s">
+        <v>455</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
       <c r="P12">
         <v>48</v>
       </c>
@@ -2095,6 +3205,15 @@
       <c r="H13" t="s">
         <v>246</v>
       </c>
+      <c r="I13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" t="s">
+        <v>455</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
       <c r="P13">
         <v>99</v>
       </c>
@@ -2125,22 +3244,22 @@
         <v>244</v>
       </c>
       <c r="I14" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="J14" t="s">
-        <v>304</v>
+        <v>456</v>
       </c>
       <c r="K14" t="s">
-        <v>342</v>
+        <v>550</v>
       </c>
       <c r="L14" t="s">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="M14" t="s">
-        <v>386</v>
+        <v>636</v>
       </c>
       <c r="N14" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O14">
         <v>177</v>
@@ -2174,6 +3293,24 @@
       <c r="H15" t="s">
         <v>247</v>
       </c>
+      <c r="I15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" t="s">
+        <v>457</v>
+      </c>
+      <c r="K15" t="s">
+        <v>551</v>
+      </c>
+      <c r="L15" t="s">
+        <v>614</v>
+      </c>
+      <c r="M15" t="s">
+        <v>637</v>
+      </c>
+      <c r="O15">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -2200,6 +3337,15 @@
       <c r="H16" t="s">
         <v>244</v>
       </c>
+      <c r="I16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" t="s">
+        <v>455</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <v>10</v>
       </c>
@@ -2229,6 +3375,24 @@
       <c r="H17" t="s">
         <v>243</v>
       </c>
+      <c r="I17" t="s">
+        <v>267</v>
+      </c>
+      <c r="J17" t="s">
+        <v>458</v>
+      </c>
+      <c r="K17" t="s">
+        <v>552</v>
+      </c>
+      <c r="L17" t="s">
+        <v>619</v>
+      </c>
+      <c r="M17" t="s">
+        <v>638</v>
+      </c>
+      <c r="O17">
+        <v>56</v>
+      </c>
       <c r="P17">
         <v>51</v>
       </c>
@@ -2258,6 +3422,27 @@
       <c r="H18" t="s">
         <v>244</v>
       </c>
+      <c r="I18" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" t="s">
+        <v>459</v>
+      </c>
+      <c r="K18" t="s">
+        <v>553</v>
+      </c>
+      <c r="L18" t="s">
+        <v>620</v>
+      </c>
+      <c r="M18" t="s">
+        <v>639</v>
+      </c>
+      <c r="N18" t="s">
+        <v>746</v>
+      </c>
+      <c r="O18">
+        <v>90</v>
+      </c>
       <c r="P18">
         <v>122</v>
       </c>
@@ -2287,6 +3472,24 @@
       <c r="H19" t="s">
         <v>244</v>
       </c>
+      <c r="I19" t="s">
+        <v>269</v>
+      </c>
+      <c r="J19" t="s">
+        <v>460</v>
+      </c>
+      <c r="K19" t="s">
+        <v>554</v>
+      </c>
+      <c r="L19" t="s">
+        <v>620</v>
+      </c>
+      <c r="M19" t="s">
+        <v>640</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -2313,6 +3516,15 @@
       <c r="H20" t="s">
         <v>245</v>
       </c>
+      <c r="I20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J20" t="s">
+        <v>455</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
       <c r="P20">
         <v>513</v>
       </c>
@@ -2342,6 +3554,24 @@
       <c r="H21" t="s">
         <v>246</v>
       </c>
+      <c r="I21" t="s">
+        <v>271</v>
+      </c>
+      <c r="J21" t="s">
+        <v>461</v>
+      </c>
+      <c r="K21" t="s">
+        <v>545</v>
+      </c>
+      <c r="L21" t="s">
+        <v>621</v>
+      </c>
+      <c r="M21" t="s">
+        <v>641</v>
+      </c>
+      <c r="O21">
+        <v>33</v>
+      </c>
       <c r="P21">
         <v>61</v>
       </c>
@@ -2400,6 +3630,15 @@
       <c r="H23" t="s">
         <v>244</v>
       </c>
+      <c r="I23" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" t="s">
+        <v>455</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
       <c r="P23">
         <v>3</v>
       </c>
@@ -2429,6 +3668,24 @@
       <c r="H24" t="s">
         <v>243</v>
       </c>
+      <c r="I24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" t="s">
+        <v>462</v>
+      </c>
+      <c r="K24" t="s">
+        <v>555</v>
+      </c>
+      <c r="L24" t="s">
+        <v>619</v>
+      </c>
+      <c r="M24" t="s">
+        <v>642</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
       <c r="P24">
         <v>21</v>
       </c>
@@ -2458,6 +3715,24 @@
       <c r="H25" t="s">
         <v>242</v>
       </c>
+      <c r="I25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J25" t="s">
+        <v>463</v>
+      </c>
+      <c r="K25" t="s">
+        <v>556</v>
+      </c>
+      <c r="L25" t="s">
+        <v>622</v>
+      </c>
+      <c r="M25" t="s">
+        <v>643</v>
+      </c>
+      <c r="O25">
+        <v>41</v>
+      </c>
       <c r="P25">
         <v>65</v>
       </c>
@@ -2487,6 +3762,24 @@
       <c r="H26" t="s">
         <v>243</v>
       </c>
+      <c r="I26" t="s">
+        <v>275</v>
+      </c>
+      <c r="J26" t="s">
+        <v>464</v>
+      </c>
+      <c r="K26" t="s">
+        <v>557</v>
+      </c>
+      <c r="L26" t="s">
+        <v>621</v>
+      </c>
+      <c r="M26" t="s">
+        <v>644</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
       <c r="P26">
         <v>1</v>
       </c>
@@ -2516,6 +3809,24 @@
       <c r="H27" t="s">
         <v>248</v>
       </c>
+      <c r="I27" t="s">
+        <v>276</v>
+      </c>
+      <c r="J27" t="s">
+        <v>465</v>
+      </c>
+      <c r="K27" t="s">
+        <v>558</v>
+      </c>
+      <c r="L27" t="s">
+        <v>621</v>
+      </c>
+      <c r="M27" t="s">
+        <v>645</v>
+      </c>
+      <c r="O27">
+        <v>50</v>
+      </c>
       <c r="P27">
         <v>52</v>
       </c>
@@ -2546,22 +3857,22 @@
         <v>248</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>305</v>
+        <v>454</v>
       </c>
       <c r="K28" t="s">
-        <v>343</v>
+        <v>549</v>
       </c>
       <c r="L28" t="s">
-        <v>375</v>
+        <v>618</v>
       </c>
       <c r="M28" t="s">
-        <v>387</v>
+        <v>646</v>
       </c>
       <c r="O28">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P28">
         <v>231</v>
@@ -2592,6 +3903,15 @@
       <c r="H29" t="s">
         <v>244</v>
       </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>455</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -2618,6 +3938,24 @@
       <c r="H30" t="s">
         <v>246</v>
       </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>465</v>
+      </c>
+      <c r="K30" t="s">
+        <v>558</v>
+      </c>
+      <c r="L30" t="s">
+        <v>623</v>
+      </c>
+      <c r="M30" t="s">
+        <v>647</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
       <c r="P30">
         <v>124</v>
       </c>
@@ -2647,6 +3985,27 @@
       <c r="H31" t="s">
         <v>248</v>
       </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>466</v>
+      </c>
+      <c r="K31" t="s">
+        <v>559</v>
+      </c>
+      <c r="L31" t="s">
+        <v>619</v>
+      </c>
+      <c r="M31" t="s">
+        <v>648</v>
+      </c>
+      <c r="N31" t="s">
+        <v>745</v>
+      </c>
+      <c r="O31">
+        <v>1321</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
@@ -2673,6 +4032,15 @@
       <c r="H32" t="s">
         <v>244</v>
       </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>455</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
       <c r="P32">
         <v>6</v>
       </c>
@@ -2703,22 +4071,22 @@
         <v>242</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>467</v>
       </c>
       <c r="K33" t="s">
-        <v>344</v>
+        <v>560</v>
       </c>
       <c r="L33" t="s">
-        <v>376</v>
+        <v>622</v>
       </c>
       <c r="M33" t="s">
-        <v>388</v>
+        <v>649</v>
       </c>
       <c r="O33">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P33">
         <v>168</v>
@@ -2750,22 +4118,22 @@
         <v>248</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="K34" t="s">
-        <v>341</v>
+        <v>543</v>
       </c>
       <c r="L34" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M34" t="s">
-        <v>389</v>
+        <v>650</v>
       </c>
       <c r="O34">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P34">
         <v>195</v>
@@ -2796,6 +4164,27 @@
       <c r="H35" t="s">
         <v>245</v>
       </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>468</v>
+      </c>
+      <c r="K35" t="s">
+        <v>561</v>
+      </c>
+      <c r="L35" t="s">
+        <v>624</v>
+      </c>
+      <c r="M35" t="s">
+        <v>651</v>
+      </c>
+      <c r="N35" t="s">
+        <v>746</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
       <c r="P35">
         <v>135</v>
       </c>
@@ -2825,6 +4214,15 @@
       <c r="H36" t="s">
         <v>245</v>
       </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" t="s">
+        <v>455</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
       <c r="P36">
         <v>68</v>
       </c>
@@ -2855,22 +4253,22 @@
         <v>249</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="L37" t="s">
-        <v>378</v>
+        <v>616</v>
       </c>
       <c r="M37" t="s">
-        <v>390</v>
+        <v>631</v>
       </c>
       <c r="O37">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P37">
         <v>145</v>
@@ -2902,22 +4300,22 @@
         <v>242</v>
       </c>
       <c r="I38" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>470</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>563</v>
       </c>
       <c r="L38" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M38" t="s">
-        <v>391</v>
+        <v>652</v>
       </c>
       <c r="O38">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P38">
         <v>125</v>
@@ -2948,6 +4346,24 @@
       <c r="H39" t="s">
         <v>243</v>
       </c>
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" t="s">
+        <v>471</v>
+      </c>
+      <c r="K39" t="s">
+        <v>564</v>
+      </c>
+      <c r="L39" t="s">
+        <v>619</v>
+      </c>
+      <c r="M39" t="s">
+        <v>653</v>
+      </c>
+      <c r="O39">
+        <v>40</v>
+      </c>
       <c r="P39">
         <v>46</v>
       </c>
@@ -2977,6 +4393,15 @@
       <c r="H40" t="s">
         <v>243</v>
       </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>455</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
       <c r="P40">
         <v>23</v>
       </c>
@@ -3007,25 +4432,25 @@
         <v>243</v>
       </c>
       <c r="I41" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
+        <v>472</v>
       </c>
       <c r="K41" t="s">
-        <v>347</v>
+        <v>565</v>
       </c>
       <c r="L41" t="s">
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="M41" t="s">
-        <v>392</v>
+        <v>654</v>
       </c>
       <c r="N41" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O41">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3054,22 +4479,22 @@
         <v>245</v>
       </c>
       <c r="I42" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="J42" t="s">
-        <v>310</v>
+        <v>473</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>566</v>
       </c>
       <c r="L42" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M42" t="s">
-        <v>393</v>
+        <v>655</v>
       </c>
       <c r="O42">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P42">
         <v>101</v>
@@ -3101,22 +4526,22 @@
         <v>243</v>
       </c>
       <c r="I43" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J43" t="s">
-        <v>311</v>
+        <v>474</v>
       </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M43" t="s">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="O43">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P43">
         <v>202</v>
@@ -3147,6 +4572,27 @@
       <c r="H44" t="s">
         <v>249</v>
       </c>
+      <c r="I44" t="s">
+        <v>293</v>
+      </c>
+      <c r="J44" t="s">
+        <v>475</v>
+      </c>
+      <c r="K44" t="s">
+        <v>567</v>
+      </c>
+      <c r="L44" t="s">
+        <v>624</v>
+      </c>
+      <c r="M44" t="s">
+        <v>657</v>
+      </c>
+      <c r="N44" t="s">
+        <v>746</v>
+      </c>
+      <c r="O44">
+        <v>25</v>
+      </c>
       <c r="P44">
         <v>26</v>
       </c>
@@ -3177,22 +4623,22 @@
         <v>245</v>
       </c>
       <c r="I45" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J45" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="L45" t="s">
-        <v>381</v>
+        <v>624</v>
       </c>
       <c r="M45" t="s">
-        <v>395</v>
+        <v>658</v>
       </c>
       <c r="O45">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P45">
         <v>126</v>
@@ -3218,25 +4664,25 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="J46" t="s">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="K46" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="L46" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="M46" t="s">
-        <v>396</v>
+        <v>659</v>
       </c>
       <c r="N46" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O46">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P46">
         <v>319</v>
@@ -3267,6 +4713,27 @@
       <c r="H47" t="s">
         <v>246</v>
       </c>
+      <c r="I47" t="s">
+        <v>296</v>
+      </c>
+      <c r="J47" t="s">
+        <v>477</v>
+      </c>
+      <c r="K47" t="s">
+        <v>545</v>
+      </c>
+      <c r="L47" t="s">
+        <v>620</v>
+      </c>
+      <c r="M47" t="s">
+        <v>660</v>
+      </c>
+      <c r="N47" t="s">
+        <v>746</v>
+      </c>
+      <c r="O47">
+        <v>184</v>
+      </c>
       <c r="P47">
         <v>90</v>
       </c>
@@ -3291,22 +4758,22 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="J48" t="s">
-        <v>306</v>
+        <v>467</v>
       </c>
       <c r="K48" t="s">
-        <v>344</v>
+        <v>560</v>
       </c>
       <c r="L48" t="s">
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="M48" t="s">
-        <v>397</v>
+        <v>661</v>
       </c>
       <c r="O48">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P48">
         <v>156</v>
@@ -3338,22 +4805,22 @@
         <v>243</v>
       </c>
       <c r="I49" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J49" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="K49" t="s">
-        <v>350</v>
+        <v>568</v>
       </c>
       <c r="L49" t="s">
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="M49" t="s">
-        <v>398</v>
+        <v>662</v>
       </c>
       <c r="O49">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P49">
         <v>85</v>
@@ -3385,22 +4852,22 @@
         <v>242</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J50" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>568</v>
       </c>
       <c r="L50" t="s">
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="M50" t="s">
-        <v>398</v>
+        <v>662</v>
       </c>
       <c r="O50">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P50">
         <v>85</v>
@@ -3457,6 +4924,27 @@
       <c r="H52" t="s">
         <v>243</v>
       </c>
+      <c r="I52" t="s">
+        <v>299</v>
+      </c>
+      <c r="J52" t="s">
+        <v>469</v>
+      </c>
+      <c r="K52" t="s">
+        <v>562</v>
+      </c>
+      <c r="L52" t="s">
+        <v>615</v>
+      </c>
+      <c r="M52" t="s">
+        <v>663</v>
+      </c>
+      <c r="N52" t="s">
+        <v>745</v>
+      </c>
+      <c r="O52">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
@@ -3483,6 +4971,24 @@
       <c r="H53" t="s">
         <v>244</v>
       </c>
+      <c r="I53" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" t="s">
+        <v>479</v>
+      </c>
+      <c r="K53" t="s">
+        <v>569</v>
+      </c>
+      <c r="L53" t="s">
+        <v>625</v>
+      </c>
+      <c r="M53" t="s">
+        <v>664</v>
+      </c>
+      <c r="O53">
+        <v>26</v>
+      </c>
       <c r="P53">
         <v>42</v>
       </c>
@@ -3532,6 +5038,27 @@
       <c r="H55" t="s">
         <v>249</v>
       </c>
+      <c r="I55" t="s">
+        <v>301</v>
+      </c>
+      <c r="J55" t="s">
+        <v>480</v>
+      </c>
+      <c r="K55" t="s">
+        <v>570</v>
+      </c>
+      <c r="L55" t="s">
+        <v>620</v>
+      </c>
+      <c r="M55" t="s">
+        <v>665</v>
+      </c>
+      <c r="N55" t="s">
+        <v>746</v>
+      </c>
+      <c r="O55">
+        <v>71</v>
+      </c>
       <c r="P55">
         <v>69</v>
       </c>
@@ -3561,6 +5088,24 @@
       <c r="H56" t="s">
         <v>245</v>
       </c>
+      <c r="I56" t="s">
+        <v>302</v>
+      </c>
+      <c r="J56" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" t="s">
+        <v>571</v>
+      </c>
+      <c r="L56" t="s">
+        <v>616</v>
+      </c>
+      <c r="M56" t="s">
+        <v>666</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
       <c r="P56">
         <v>8</v>
       </c>
@@ -3590,6 +5135,24 @@
       <c r="H57" t="s">
         <v>250</v>
       </c>
+      <c r="I57" t="s">
+        <v>303</v>
+      </c>
+      <c r="J57" t="s">
+        <v>460</v>
+      </c>
+      <c r="K57" t="s">
+        <v>554</v>
+      </c>
+      <c r="L57" t="s">
+        <v>621</v>
+      </c>
+      <c r="M57" t="s">
+        <v>667</v>
+      </c>
+      <c r="O57">
+        <v>51</v>
+      </c>
       <c r="P57">
         <v>52</v>
       </c>
@@ -3613,6 +5176,24 @@
       <c r="G58">
         <v>1</v>
       </c>
+      <c r="I58" t="s">
+        <v>304</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>562</v>
+      </c>
+      <c r="L58" t="s">
+        <v>621</v>
+      </c>
+      <c r="M58" t="s">
+        <v>668</v>
+      </c>
+      <c r="O58">
+        <v>70</v>
+      </c>
       <c r="P58">
         <v>69</v>
       </c>
@@ -3643,22 +5224,22 @@
         <v>248</v>
       </c>
       <c r="I59" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="J59" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
       <c r="K59" t="s">
-        <v>351</v>
+        <v>544</v>
       </c>
       <c r="L59" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M59" t="s">
-        <v>399</v>
+        <v>669</v>
       </c>
       <c r="O59">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P59">
         <v>185</v>
@@ -3689,6 +5270,24 @@
       <c r="H60" t="s">
         <v>246</v>
       </c>
+      <c r="I60" t="s">
+        <v>306</v>
+      </c>
+      <c r="J60" t="s">
+        <v>462</v>
+      </c>
+      <c r="K60" t="s">
+        <v>555</v>
+      </c>
+      <c r="L60" t="s">
+        <v>620</v>
+      </c>
+      <c r="M60" t="s">
+        <v>670</v>
+      </c>
+      <c r="O60">
+        <v>14</v>
+      </c>
       <c r="P60">
         <v>2</v>
       </c>
@@ -3718,6 +5317,24 @@
       <c r="H61" t="s">
         <v>245</v>
       </c>
+      <c r="I61" t="s">
+        <v>307</v>
+      </c>
+      <c r="J61" t="s">
+        <v>483</v>
+      </c>
+      <c r="K61" t="s">
+        <v>572</v>
+      </c>
+      <c r="L61" t="s">
+        <v>620</v>
+      </c>
+      <c r="M61" t="s">
+        <v>671</v>
+      </c>
+      <c r="O61">
+        <v>11</v>
+      </c>
       <c r="P61">
         <v>46</v>
       </c>
@@ -3747,6 +5364,24 @@
       <c r="H62" t="s">
         <v>242</v>
       </c>
+      <c r="I62" t="s">
+        <v>308</v>
+      </c>
+      <c r="J62" t="s">
+        <v>484</v>
+      </c>
+      <c r="K62" t="s">
+        <v>573</v>
+      </c>
+      <c r="L62" t="s">
+        <v>619</v>
+      </c>
+      <c r="M62" t="s">
+        <v>672</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
       <c r="P62">
         <v>33</v>
       </c>
@@ -3776,6 +5411,24 @@
       <c r="H63" t="s">
         <v>242</v>
       </c>
+      <c r="I63" t="s">
+        <v>308</v>
+      </c>
+      <c r="J63" t="s">
+        <v>484</v>
+      </c>
+      <c r="K63" t="s">
+        <v>573</v>
+      </c>
+      <c r="L63" t="s">
+        <v>619</v>
+      </c>
+      <c r="M63" t="s">
+        <v>672</v>
+      </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
       <c r="P63">
         <v>14</v>
       </c>
@@ -3805,6 +5458,27 @@
       <c r="H64" t="s">
         <v>245</v>
       </c>
+      <c r="I64" t="s">
+        <v>309</v>
+      </c>
+      <c r="J64" t="s">
+        <v>485</v>
+      </c>
+      <c r="K64" t="s">
+        <v>574</v>
+      </c>
+      <c r="L64" t="s">
+        <v>620</v>
+      </c>
+      <c r="M64" t="s">
+        <v>671</v>
+      </c>
+      <c r="N64" t="s">
+        <v>746</v>
+      </c>
+      <c r="O64">
+        <v>70</v>
+      </c>
       <c r="P64">
         <v>69</v>
       </c>
@@ -3835,25 +5509,25 @@
         <v>242</v>
       </c>
       <c r="I65" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="J65" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s">
-        <v>352</v>
+        <v>556</v>
       </c>
       <c r="L65" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M65" t="s">
-        <v>400</v>
+        <v>673</v>
       </c>
       <c r="N65" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O65">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3881,6 +5555,24 @@
       <c r="H66" t="s">
         <v>246</v>
       </c>
+      <c r="I66" t="s">
+        <v>311</v>
+      </c>
+      <c r="J66" t="s">
+        <v>486</v>
+      </c>
+      <c r="K66" t="s">
+        <v>545</v>
+      </c>
+      <c r="L66" t="s">
+        <v>624</v>
+      </c>
+      <c r="M66" t="s">
+        <v>651</v>
+      </c>
+      <c r="O66">
+        <v>24</v>
+      </c>
       <c r="P66">
         <v>20</v>
       </c>
@@ -3911,25 +5603,25 @@
         <v>245</v>
       </c>
       <c r="I67" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="J67" t="s">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="K67" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="L67" t="s">
-        <v>378</v>
+        <v>616</v>
       </c>
       <c r="M67" t="s">
-        <v>401</v>
+        <v>674</v>
       </c>
       <c r="N67" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O67">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="P67">
         <v>541</v>
@@ -3960,6 +5652,24 @@
       <c r="H68" t="s">
         <v>244</v>
       </c>
+      <c r="I68" t="s">
+        <v>313</v>
+      </c>
+      <c r="J68" t="s">
+        <v>462</v>
+      </c>
+      <c r="K68" t="s">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>614</v>
+      </c>
+      <c r="M68" t="s">
+        <v>675</v>
+      </c>
+      <c r="O68">
+        <v>14</v>
+      </c>
       <c r="P68">
         <v>65</v>
       </c>
@@ -3989,6 +5699,27 @@
       <c r="H69" t="s">
         <v>245</v>
       </c>
+      <c r="I69" t="s">
+        <v>314</v>
+      </c>
+      <c r="J69" t="s">
+        <v>488</v>
+      </c>
+      <c r="K69" t="s">
+        <v>575</v>
+      </c>
+      <c r="L69" t="s">
+        <v>622</v>
+      </c>
+      <c r="M69" t="s">
+        <v>676</v>
+      </c>
+      <c r="N69" t="s">
+        <v>746</v>
+      </c>
+      <c r="O69">
+        <v>43</v>
+      </c>
       <c r="P69">
         <v>32</v>
       </c>
@@ -4018,6 +5749,27 @@
       <c r="H70" t="s">
         <v>245</v>
       </c>
+      <c r="I70" t="s">
+        <v>314</v>
+      </c>
+      <c r="J70" t="s">
+        <v>488</v>
+      </c>
+      <c r="K70" t="s">
+        <v>575</v>
+      </c>
+      <c r="L70" t="s">
+        <v>622</v>
+      </c>
+      <c r="M70" t="s">
+        <v>676</v>
+      </c>
+      <c r="N70" t="s">
+        <v>746</v>
+      </c>
+      <c r="O70">
+        <v>43</v>
+      </c>
       <c r="P70">
         <v>13</v>
       </c>
@@ -4042,19 +5794,19 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="J71" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="K71" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M71" t="s">
-        <v>402</v>
+        <v>677</v>
       </c>
       <c r="O71">
         <v>208</v>
@@ -4083,19 +5835,19 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="J72" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="K72" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="L72" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M72" t="s">
-        <v>402</v>
+        <v>677</v>
       </c>
       <c r="O72">
         <v>208</v>
@@ -4129,6 +5881,24 @@
       <c r="H73" t="s">
         <v>245</v>
       </c>
+      <c r="I73" t="s">
+        <v>316</v>
+      </c>
+      <c r="J73" t="s">
+        <v>457</v>
+      </c>
+      <c r="K73" t="s">
+        <v>551</v>
+      </c>
+      <c r="L73" t="s">
+        <v>619</v>
+      </c>
+      <c r="M73" t="s">
+        <v>678</v>
+      </c>
+      <c r="O73">
+        <v>12</v>
+      </c>
       <c r="P73">
         <v>12</v>
       </c>
@@ -4158,6 +5928,27 @@
       <c r="H74" t="s">
         <v>242</v>
       </c>
+      <c r="I74" t="s">
+        <v>317</v>
+      </c>
+      <c r="J74" t="s">
+        <v>489</v>
+      </c>
+      <c r="K74" t="s">
+        <v>576</v>
+      </c>
+      <c r="L74" t="s">
+        <v>619</v>
+      </c>
+      <c r="M74" t="s">
+        <v>653</v>
+      </c>
+      <c r="N74" t="s">
+        <v>746</v>
+      </c>
+      <c r="O74">
+        <v>51</v>
+      </c>
       <c r="P74">
         <v>6</v>
       </c>
@@ -4187,6 +5978,27 @@
       <c r="H75" t="s">
         <v>242</v>
       </c>
+      <c r="I75" t="s">
+        <v>317</v>
+      </c>
+      <c r="J75" t="s">
+        <v>489</v>
+      </c>
+      <c r="K75" t="s">
+        <v>576</v>
+      </c>
+      <c r="L75" t="s">
+        <v>619</v>
+      </c>
+      <c r="M75" t="s">
+        <v>653</v>
+      </c>
+      <c r="N75" t="s">
+        <v>746</v>
+      </c>
+      <c r="O75">
+        <v>51</v>
+      </c>
       <c r="P75">
         <v>40</v>
       </c>
@@ -4217,25 +6029,25 @@
         <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="J76" t="s">
-        <v>317</v>
+        <v>490</v>
       </c>
       <c r="K76" t="s">
-        <v>351</v>
+        <v>544</v>
       </c>
       <c r="L76" t="s">
-        <v>373</v>
+        <v>615</v>
       </c>
       <c r="M76" t="s">
-        <v>403</v>
+        <v>679</v>
       </c>
       <c r="N76" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O76">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4263,6 +6075,15 @@
       <c r="H77" t="s">
         <v>245</v>
       </c>
+      <c r="I77" t="s">
+        <v>319</v>
+      </c>
+      <c r="J77" t="s">
+        <v>455</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
       <c r="P77">
         <v>74</v>
       </c>
@@ -4292,6 +6113,27 @@
       <c r="H78" t="s">
         <v>251</v>
       </c>
+      <c r="I78" t="s">
+        <v>320</v>
+      </c>
+      <c r="J78" t="s">
+        <v>491</v>
+      </c>
+      <c r="K78" t="s">
+        <v>577</v>
+      </c>
+      <c r="L78" t="s">
+        <v>621</v>
+      </c>
+      <c r="M78" t="s">
+        <v>680</v>
+      </c>
+      <c r="N78" t="s">
+        <v>746</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
       <c r="P78">
         <v>3</v>
       </c>
@@ -4321,6 +6163,24 @@
       <c r="H79" t="s">
         <v>249</v>
       </c>
+      <c r="I79" t="s">
+        <v>321</v>
+      </c>
+      <c r="J79" t="s">
+        <v>462</v>
+      </c>
+      <c r="K79" t="s">
+        <v>555</v>
+      </c>
+      <c r="L79" t="s">
+        <v>620</v>
+      </c>
+      <c r="M79" t="s">
+        <v>671</v>
+      </c>
+      <c r="O79">
+        <v>40</v>
+      </c>
       <c r="P79">
         <v>38</v>
       </c>
@@ -4350,6 +6210,24 @@
       <c r="H80" t="s">
         <v>244</v>
       </c>
+      <c r="I80" t="s">
+        <v>322</v>
+      </c>
+      <c r="J80" t="s">
+        <v>492</v>
+      </c>
+      <c r="K80" t="s">
+        <v>578</v>
+      </c>
+      <c r="L80" t="s">
+        <v>620</v>
+      </c>
+      <c r="M80" t="s">
+        <v>681</v>
+      </c>
+      <c r="O80">
+        <v>13</v>
+      </c>
       <c r="P80">
         <v>15</v>
       </c>
@@ -4379,6 +6257,24 @@
       <c r="H81" t="s">
         <v>245</v>
       </c>
+      <c r="I81" t="s">
+        <v>323</v>
+      </c>
+      <c r="J81" t="s">
+        <v>493</v>
+      </c>
+      <c r="K81" t="s">
+        <v>579</v>
+      </c>
+      <c r="L81" t="s">
+        <v>620</v>
+      </c>
+      <c r="M81" t="s">
+        <v>682</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
       <c r="P81">
         <v>6</v>
       </c>
@@ -4408,6 +6304,24 @@
       <c r="H82" t="s">
         <v>242</v>
       </c>
+      <c r="I82" t="s">
+        <v>324</v>
+      </c>
+      <c r="J82" t="s">
+        <v>463</v>
+      </c>
+      <c r="K82" t="s">
+        <v>556</v>
+      </c>
+      <c r="L82" t="s">
+        <v>620</v>
+      </c>
+      <c r="M82" t="s">
+        <v>683</v>
+      </c>
+      <c r="O82">
+        <v>34</v>
+      </c>
       <c r="P82">
         <v>33</v>
       </c>
@@ -4438,19 +6352,19 @@
         <v>251</v>
       </c>
       <c r="I83" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="J83" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="K83" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="L83" t="s">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="M83" t="s">
-        <v>404</v>
+        <v>653</v>
       </c>
       <c r="O83">
         <v>199</v>
@@ -4478,6 +6392,15 @@
       <c r="G84">
         <v>1</v>
       </c>
+      <c r="I84" t="s">
+        <v>326</v>
+      </c>
+      <c r="J84" t="s">
+        <v>455</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
       <c r="P84">
         <v>805</v>
       </c>
@@ -4507,6 +6430,24 @@
       <c r="H85" t="s">
         <v>242</v>
       </c>
+      <c r="I85" t="s">
+        <v>327</v>
+      </c>
+      <c r="J85" t="s">
+        <v>495</v>
+      </c>
+      <c r="K85" t="s">
+        <v>581</v>
+      </c>
+      <c r="L85" t="s">
+        <v>620</v>
+      </c>
+      <c r="M85" t="s">
+        <v>684</v>
+      </c>
+      <c r="O85">
+        <v>60</v>
+      </c>
       <c r="P85">
         <v>58</v>
       </c>
@@ -4536,6 +6477,24 @@
       <c r="H86" t="s">
         <v>243</v>
       </c>
+      <c r="I86" t="s">
+        <v>328</v>
+      </c>
+      <c r="J86" t="s">
+        <v>496</v>
+      </c>
+      <c r="K86" t="s">
+        <v>582</v>
+      </c>
+      <c r="L86" t="s">
+        <v>618</v>
+      </c>
+      <c r="M86" t="s">
+        <v>685</v>
+      </c>
+      <c r="O86">
+        <v>67</v>
+      </c>
       <c r="P86">
         <v>91</v>
       </c>
@@ -4565,6 +6524,24 @@
       <c r="H87" t="s">
         <v>245</v>
       </c>
+      <c r="I87" t="s">
+        <v>329</v>
+      </c>
+      <c r="J87" t="s">
+        <v>479</v>
+      </c>
+      <c r="K87" t="s">
+        <v>569</v>
+      </c>
+      <c r="L87" t="s">
+        <v>623</v>
+      </c>
+      <c r="M87" t="s">
+        <v>686</v>
+      </c>
+      <c r="O87">
+        <v>3</v>
+      </c>
       <c r="P87">
         <v>104</v>
       </c>
@@ -4595,22 +6572,22 @@
         <v>245</v>
       </c>
       <c r="I88" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="J88" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
       <c r="K88" t="s">
-        <v>354</v>
+        <v>561</v>
       </c>
       <c r="L88" t="s">
-        <v>375</v>
+        <v>618</v>
       </c>
       <c r="M88" t="s">
-        <v>405</v>
+        <v>685</v>
       </c>
       <c r="N88" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O88">
         <v>411</v>
@@ -4645,22 +6622,22 @@
         <v>245</v>
       </c>
       <c r="I89" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="J89" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
       <c r="K89" t="s">
-        <v>354</v>
+        <v>561</v>
       </c>
       <c r="L89" t="s">
-        <v>375</v>
+        <v>618</v>
       </c>
       <c r="M89" t="s">
-        <v>405</v>
+        <v>685</v>
       </c>
       <c r="N89" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O89">
         <v>411</v>
@@ -4695,22 +6672,22 @@
         <v>250</v>
       </c>
       <c r="I90" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="J90" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="K90" t="s">
-        <v>350</v>
+        <v>568</v>
       </c>
       <c r="L90" t="s">
-        <v>372</v>
+        <v>614</v>
       </c>
       <c r="M90" t="s">
-        <v>406</v>
+        <v>687</v>
       </c>
       <c r="O90">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P90">
         <v>279</v>
@@ -4742,22 +6719,22 @@
         <v>245</v>
       </c>
       <c r="I91" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="J91" t="s">
-        <v>320</v>
+        <v>497</v>
       </c>
       <c r="K91" t="s">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="L91" t="s">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="M91" t="s">
-        <v>407</v>
+        <v>688</v>
       </c>
       <c r="O91">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P91">
         <v>122</v>
@@ -4788,6 +6765,24 @@
       <c r="H92" t="s">
         <v>244</v>
       </c>
+      <c r="I92" t="s">
+        <v>324</v>
+      </c>
+      <c r="J92" t="s">
+        <v>463</v>
+      </c>
+      <c r="K92" t="s">
+        <v>556</v>
+      </c>
+      <c r="L92" t="s">
+        <v>620</v>
+      </c>
+      <c r="M92" t="s">
+        <v>683</v>
+      </c>
+      <c r="O92">
+        <v>34</v>
+      </c>
       <c r="P92">
         <v>33</v>
       </c>
@@ -4817,6 +6812,15 @@
       <c r="H93" t="s">
         <v>245</v>
       </c>
+      <c r="I93" t="s">
+        <v>333</v>
+      </c>
+      <c r="J93" t="s">
+        <v>455</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
       <c r="P93">
         <v>1</v>
       </c>
@@ -4846,6 +6850,24 @@
       <c r="H94" t="s">
         <v>243</v>
       </c>
+      <c r="I94" t="s">
+        <v>334</v>
+      </c>
+      <c r="J94" t="s">
+        <v>498</v>
+      </c>
+      <c r="K94" t="s">
+        <v>584</v>
+      </c>
+      <c r="L94" t="s">
+        <v>622</v>
+      </c>
+      <c r="M94" t="s">
+        <v>689</v>
+      </c>
+      <c r="O94">
+        <v>29</v>
+      </c>
       <c r="P94">
         <v>52</v>
       </c>
@@ -4875,6 +6897,24 @@
       <c r="H95" t="s">
         <v>243</v>
       </c>
+      <c r="I95" t="s">
+        <v>335</v>
+      </c>
+      <c r="J95" t="s">
+        <v>499</v>
+      </c>
+      <c r="K95" t="s">
+        <v>585</v>
+      </c>
+      <c r="L95" t="s">
+        <v>625</v>
+      </c>
+      <c r="M95" t="s">
+        <v>690</v>
+      </c>
+      <c r="O95">
+        <v>9</v>
+      </c>
       <c r="P95">
         <v>164</v>
       </c>
@@ -4898,6 +6938,24 @@
       <c r="G96">
         <v>2</v>
       </c>
+      <c r="I96" t="s">
+        <v>336</v>
+      </c>
+      <c r="J96" t="s">
+        <v>460</v>
+      </c>
+      <c r="K96" t="s">
+        <v>554</v>
+      </c>
+      <c r="L96" t="s">
+        <v>620</v>
+      </c>
+      <c r="M96" t="s">
+        <v>691</v>
+      </c>
+      <c r="O96">
+        <v>1697</v>
+      </c>
       <c r="P96">
         <v>3030</v>
       </c>
@@ -4927,6 +6985,15 @@
       <c r="H97" t="s">
         <v>246</v>
       </c>
+      <c r="I97" t="s">
+        <v>337</v>
+      </c>
+      <c r="J97" t="s">
+        <v>455</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
       <c r="P97">
         <v>23</v>
       </c>
@@ -4950,6 +7017,27 @@
       <c r="G98">
         <v>2</v>
       </c>
+      <c r="I98" t="s">
+        <v>338</v>
+      </c>
+      <c r="J98" t="s">
+        <v>500</v>
+      </c>
+      <c r="K98" t="s">
+        <v>545</v>
+      </c>
+      <c r="L98" t="s">
+        <v>626</v>
+      </c>
+      <c r="M98" t="s">
+        <v>692</v>
+      </c>
+      <c r="N98" t="s">
+        <v>746</v>
+      </c>
+      <c r="O98">
+        <v>5092</v>
+      </c>
       <c r="P98">
         <v>1608</v>
       </c>
@@ -4979,6 +7067,24 @@
       <c r="H99" t="s">
         <v>243</v>
       </c>
+      <c r="I99" t="s">
+        <v>339</v>
+      </c>
+      <c r="J99" t="s">
+        <v>501</v>
+      </c>
+      <c r="K99" t="s">
+        <v>586</v>
+      </c>
+      <c r="L99" t="s">
+        <v>627</v>
+      </c>
+      <c r="M99" t="s">
+        <v>693</v>
+      </c>
+      <c r="O99">
+        <v>36</v>
+      </c>
       <c r="P99">
         <v>32</v>
       </c>
@@ -5008,6 +7114,24 @@
       <c r="H100" t="s">
         <v>247</v>
       </c>
+      <c r="I100" t="s">
+        <v>340</v>
+      </c>
+      <c r="J100" t="s">
+        <v>502</v>
+      </c>
+      <c r="K100" t="s">
+        <v>577</v>
+      </c>
+      <c r="L100" t="s">
+        <v>624</v>
+      </c>
+      <c r="M100" t="s">
+        <v>694</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
       <c r="P100">
         <v>1</v>
       </c>
@@ -5038,22 +7162,22 @@
         <v>244</v>
       </c>
       <c r="I101" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="J101" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="K101" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="L101" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M101" t="s">
-        <v>408</v>
+        <v>690</v>
       </c>
       <c r="O101">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P101">
         <v>298</v>
@@ -5085,22 +7209,22 @@
         <v>244</v>
       </c>
       <c r="I102" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="J102" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="K102" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="L102" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M102" t="s">
-        <v>408</v>
+        <v>690</v>
       </c>
       <c r="O102">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P102">
         <v>620</v>
@@ -5132,22 +7256,22 @@
         <v>249</v>
       </c>
       <c r="I103" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="J103" t="s">
-        <v>321</v>
+        <v>503</v>
       </c>
       <c r="K103" t="s">
-        <v>356</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M103" t="s">
-        <v>409</v>
+        <v>695</v>
       </c>
       <c r="O103">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P103">
         <v>183</v>
@@ -5178,6 +7302,15 @@
       <c r="H104" t="s">
         <v>242</v>
       </c>
+      <c r="I104" t="s">
+        <v>343</v>
+      </c>
+      <c r="J104" t="s">
+        <v>455</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
       <c r="P104">
         <v>85</v>
       </c>
@@ -5207,6 +7340,24 @@
       <c r="H105" t="s">
         <v>243</v>
       </c>
+      <c r="I105" t="s">
+        <v>344</v>
+      </c>
+      <c r="J105" t="s">
+        <v>504</v>
+      </c>
+      <c r="K105" t="s">
+        <v>545</v>
+      </c>
+      <c r="L105" t="s">
+        <v>620</v>
+      </c>
+      <c r="M105" t="s">
+        <v>656</v>
+      </c>
+      <c r="O105">
+        <v>40</v>
+      </c>
       <c r="P105">
         <v>54</v>
       </c>
@@ -5237,25 +7388,25 @@
         <v>244</v>
       </c>
       <c r="I106" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="J106" t="s">
-        <v>322</v>
+        <v>475</v>
       </c>
       <c r="K106" t="s">
-        <v>357</v>
+        <v>567</v>
       </c>
       <c r="L106" t="s">
-        <v>383</v>
+        <v>628</v>
       </c>
       <c r="M106" t="s">
-        <v>410</v>
+        <v>696</v>
       </c>
       <c r="N106" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O106">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P106">
         <v>170</v>
@@ -5286,6 +7437,24 @@
       <c r="H107" t="s">
         <v>251</v>
       </c>
+      <c r="I107" t="s">
+        <v>346</v>
+      </c>
+      <c r="J107" t="s">
+        <v>450</v>
+      </c>
+      <c r="K107" t="s">
+        <v>546</v>
+      </c>
+      <c r="L107" t="s">
+        <v>626</v>
+      </c>
+      <c r="M107" t="s">
+        <v>697</v>
+      </c>
+      <c r="O107">
+        <v>102</v>
+      </c>
       <c r="P107">
         <v>326</v>
       </c>
@@ -5315,6 +7484,24 @@
       <c r="H108" t="s">
         <v>245</v>
       </c>
+      <c r="I108" t="s">
+        <v>347</v>
+      </c>
+      <c r="J108" t="s">
+        <v>469</v>
+      </c>
+      <c r="K108" t="s">
+        <v>562</v>
+      </c>
+      <c r="L108" t="s">
+        <v>625</v>
+      </c>
+      <c r="M108" t="s">
+        <v>677</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
@@ -5336,25 +7523,25 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="J109" t="s">
-        <v>323</v>
+        <v>499</v>
       </c>
       <c r="K109" t="s">
-        <v>358</v>
+        <v>585</v>
       </c>
       <c r="L109" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M109" t="s">
-        <v>409</v>
+        <v>695</v>
       </c>
       <c r="N109" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O109">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P109">
         <v>15355</v>
@@ -5385,6 +7572,24 @@
       <c r="H110" t="s">
         <v>243</v>
       </c>
+      <c r="I110" t="s">
+        <v>349</v>
+      </c>
+      <c r="J110" t="s">
+        <v>505</v>
+      </c>
+      <c r="K110" t="s">
+        <v>588</v>
+      </c>
+      <c r="L110" t="s">
+        <v>619</v>
+      </c>
+      <c r="M110" t="s">
+        <v>698</v>
+      </c>
+      <c r="O110">
+        <v>62</v>
+      </c>
       <c r="P110">
         <v>62</v>
       </c>
@@ -5414,6 +7619,15 @@
       <c r="H111" t="s">
         <v>245</v>
       </c>
+      <c r="I111" t="s">
+        <v>350</v>
+      </c>
+      <c r="J111" t="s">
+        <v>455</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
       <c r="P111">
         <v>28</v>
       </c>
@@ -5443,6 +7657,27 @@
       <c r="H112" t="s">
         <v>242</v>
       </c>
+      <c r="I112" t="s">
+        <v>351</v>
+      </c>
+      <c r="J112" t="s">
+        <v>506</v>
+      </c>
+      <c r="K112" t="s">
+        <v>589</v>
+      </c>
+      <c r="L112" t="s">
+        <v>617</v>
+      </c>
+      <c r="M112" t="s">
+        <v>699</v>
+      </c>
+      <c r="N112" t="s">
+        <v>745</v>
+      </c>
+      <c r="O112">
+        <v>354</v>
+      </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
@@ -5469,6 +7704,24 @@
       <c r="H113" t="s">
         <v>251</v>
       </c>
+      <c r="I113" t="s">
+        <v>352</v>
+      </c>
+      <c r="J113" t="s">
+        <v>507</v>
+      </c>
+      <c r="K113" t="s">
+        <v>590</v>
+      </c>
+      <c r="L113" t="s">
+        <v>625</v>
+      </c>
+      <c r="M113" t="s">
+        <v>700</v>
+      </c>
+      <c r="O113">
+        <v>50</v>
+      </c>
       <c r="P113">
         <v>51</v>
       </c>
@@ -5498,6 +7751,24 @@
       <c r="H114" t="s">
         <v>245</v>
       </c>
+      <c r="I114" t="s">
+        <v>352</v>
+      </c>
+      <c r="J114" t="s">
+        <v>507</v>
+      </c>
+      <c r="K114" t="s">
+        <v>590</v>
+      </c>
+      <c r="L114" t="s">
+        <v>625</v>
+      </c>
+      <c r="M114" t="s">
+        <v>700</v>
+      </c>
+      <c r="O114">
+        <v>50</v>
+      </c>
       <c r="P114">
         <v>51</v>
       </c>
@@ -5527,6 +7798,24 @@
       <c r="H115" t="s">
         <v>245</v>
       </c>
+      <c r="I115" t="s">
+        <v>353</v>
+      </c>
+      <c r="J115" t="s">
+        <v>495</v>
+      </c>
+      <c r="K115" t="s">
+        <v>581</v>
+      </c>
+      <c r="L115" t="s">
+        <v>624</v>
+      </c>
+      <c r="M115" t="s">
+        <v>701</v>
+      </c>
+      <c r="O115">
+        <v>2</v>
+      </c>
       <c r="P115">
         <v>4</v>
       </c>
@@ -5550,6 +7839,27 @@
       <c r="G116">
         <v>2</v>
       </c>
+      <c r="I116" t="s">
+        <v>354</v>
+      </c>
+      <c r="J116" t="s">
+        <v>452</v>
+      </c>
+      <c r="K116" t="s">
+        <v>548</v>
+      </c>
+      <c r="L116" t="s">
+        <v>620</v>
+      </c>
+      <c r="M116" t="s">
+        <v>684</v>
+      </c>
+      <c r="N116" t="s">
+        <v>746</v>
+      </c>
+      <c r="O116">
+        <v>102</v>
+      </c>
       <c r="P116">
         <v>185</v>
       </c>
@@ -5579,6 +7889,24 @@
       <c r="H117" t="s">
         <v>242</v>
       </c>
+      <c r="I117" t="s">
+        <v>355</v>
+      </c>
+      <c r="J117" t="s">
+        <v>489</v>
+      </c>
+      <c r="K117" t="s">
+        <v>576</v>
+      </c>
+      <c r="L117" t="s">
+        <v>621</v>
+      </c>
+      <c r="M117" t="s">
+        <v>702</v>
+      </c>
+      <c r="O117">
+        <v>77</v>
+      </c>
       <c r="P117">
         <v>85</v>
       </c>
@@ -5608,6 +7936,24 @@
       <c r="H118" t="s">
         <v>242</v>
       </c>
+      <c r="I118" t="s">
+        <v>355</v>
+      </c>
+      <c r="J118" t="s">
+        <v>489</v>
+      </c>
+      <c r="K118" t="s">
+        <v>576</v>
+      </c>
+      <c r="L118" t="s">
+        <v>621</v>
+      </c>
+      <c r="M118" t="s">
+        <v>702</v>
+      </c>
+      <c r="O118">
+        <v>77</v>
+      </c>
       <c r="P118">
         <v>85</v>
       </c>
@@ -5638,25 +7984,25 @@
         <v>246</v>
       </c>
       <c r="I119" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="J119" t="s">
-        <v>324</v>
+        <v>508</v>
       </c>
       <c r="K119" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="L119" t="s">
-        <v>381</v>
+        <v>624</v>
       </c>
       <c r="M119" t="s">
-        <v>395</v>
+        <v>658</v>
       </c>
       <c r="N119" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O119">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P119">
         <v>136</v>
@@ -5687,6 +8033,15 @@
       <c r="H120" t="s">
         <v>245</v>
       </c>
+      <c r="I120" t="s">
+        <v>357</v>
+      </c>
+      <c r="J120" t="s">
+        <v>455</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
       <c r="P120">
         <v>19</v>
       </c>
@@ -5716,6 +8071,24 @@
       <c r="H121" t="s">
         <v>244</v>
       </c>
+      <c r="I121" t="s">
+        <v>358</v>
+      </c>
+      <c r="J121" t="s">
+        <v>509</v>
+      </c>
+      <c r="K121" t="s">
+        <v>591</v>
+      </c>
+      <c r="L121" t="s">
+        <v>624</v>
+      </c>
+      <c r="M121" t="s">
+        <v>701</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
@@ -5737,25 +8110,25 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="J122" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="K122" t="s">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="L122" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M122" t="s">
-        <v>411</v>
+        <v>703</v>
       </c>
       <c r="N122" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O122">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P122">
         <v>802</v>
@@ -5787,22 +8160,22 @@
         <v>246</v>
       </c>
       <c r="I123" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="J123" t="s">
-        <v>325</v>
+        <v>510</v>
       </c>
       <c r="K123" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="L123" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="M123" t="s">
-        <v>412</v>
+        <v>647</v>
       </c>
       <c r="N123" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O123">
         <v>266</v>
@@ -5837,22 +8210,22 @@
         <v>244</v>
       </c>
       <c r="I124" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="J124" t="s">
-        <v>326</v>
+        <v>511</v>
       </c>
       <c r="K124" t="s">
-        <v>359</v>
+        <v>592</v>
       </c>
       <c r="L124" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="M124" t="s">
-        <v>413</v>
+        <v>704</v>
       </c>
       <c r="N124" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O124">
         <v>109</v>
@@ -5886,6 +8259,27 @@
       <c r="H125" t="s">
         <v>243</v>
       </c>
+      <c r="I125" t="s">
+        <v>362</v>
+      </c>
+      <c r="J125" t="s">
+        <v>512</v>
+      </c>
+      <c r="K125" t="s">
+        <v>544</v>
+      </c>
+      <c r="L125" t="s">
+        <v>617</v>
+      </c>
+      <c r="M125" t="s">
+        <v>632</v>
+      </c>
+      <c r="N125" t="s">
+        <v>746</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
       <c r="P125">
         <v>6</v>
       </c>
@@ -5915,6 +8309,24 @@
       <c r="H126" t="s">
         <v>248</v>
       </c>
+      <c r="I126" t="s">
+        <v>363</v>
+      </c>
+      <c r="J126" t="s">
+        <v>450</v>
+      </c>
+      <c r="K126" t="s">
+        <v>546</v>
+      </c>
+      <c r="L126" t="s">
+        <v>626</v>
+      </c>
+      <c r="M126" t="s">
+        <v>697</v>
+      </c>
+      <c r="O126">
+        <v>90</v>
+      </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
@@ -5941,6 +8353,15 @@
       <c r="H127" t="s">
         <v>243</v>
       </c>
+      <c r="I127" t="s">
+        <v>364</v>
+      </c>
+      <c r="J127" t="s">
+        <v>455</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
       <c r="P127">
         <v>40</v>
       </c>
@@ -5965,25 +8386,25 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="J128" t="s">
-        <v>327</v>
+        <v>513</v>
       </c>
       <c r="K128" t="s">
-        <v>360</v>
+        <v>593</v>
       </c>
       <c r="L128" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M128" t="s">
-        <v>414</v>
+        <v>705</v>
       </c>
       <c r="N128" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O128">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6011,6 +8432,15 @@
       <c r="H129" t="s">
         <v>249</v>
       </c>
+      <c r="I129" t="s">
+        <v>366</v>
+      </c>
+      <c r="J129" t="s">
+        <v>455</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
       <c r="P129">
         <v>5</v>
       </c>
@@ -6040,6 +8470,24 @@
       <c r="H130" t="s">
         <v>244</v>
       </c>
+      <c r="I130" t="s">
+        <v>367</v>
+      </c>
+      <c r="J130" t="s">
+        <v>514</v>
+      </c>
+      <c r="K130" t="s">
+        <v>544</v>
+      </c>
+      <c r="L130" t="s">
+        <v>616</v>
+      </c>
+      <c r="M130" t="s">
+        <v>674</v>
+      </c>
+      <c r="O130">
+        <v>17</v>
+      </c>
       <c r="P130">
         <v>14</v>
       </c>
@@ -6069,6 +8517,27 @@
       <c r="H131" t="s">
         <v>244</v>
       </c>
+      <c r="I131" t="s">
+        <v>368</v>
+      </c>
+      <c r="J131" t="s">
+        <v>515</v>
+      </c>
+      <c r="K131" t="s">
+        <v>594</v>
+      </c>
+      <c r="L131" t="s">
+        <v>616</v>
+      </c>
+      <c r="M131" t="s">
+        <v>666</v>
+      </c>
+      <c r="N131" t="s">
+        <v>745</v>
+      </c>
+      <c r="O131">
+        <v>18</v>
+      </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
@@ -6095,6 +8564,15 @@
       <c r="H132" t="s">
         <v>244</v>
       </c>
+      <c r="I132" t="s">
+        <v>369</v>
+      </c>
+      <c r="J132" t="s">
+        <v>455</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
       <c r="P132">
         <v>8</v>
       </c>
@@ -6124,6 +8602,24 @@
       <c r="H133" t="s">
         <v>243</v>
       </c>
+      <c r="I133" t="s">
+        <v>370</v>
+      </c>
+      <c r="J133" t="s">
+        <v>462</v>
+      </c>
+      <c r="K133" t="s">
+        <v>555</v>
+      </c>
+      <c r="L133" t="s">
+        <v>621</v>
+      </c>
+      <c r="M133" t="s">
+        <v>706</v>
+      </c>
+      <c r="O133">
+        <v>39</v>
+      </c>
       <c r="P133">
         <v>36</v>
       </c>
@@ -6148,25 +8644,25 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="J134" t="s">
-        <v>328</v>
+        <v>464</v>
       </c>
       <c r="K134" t="s">
-        <v>361</v>
+        <v>557</v>
       </c>
       <c r="L134" t="s">
-        <v>378</v>
+        <v>616</v>
       </c>
       <c r="M134" t="s">
-        <v>415</v>
+        <v>707</v>
       </c>
       <c r="N134" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O134">
-        <v>1486</v>
+        <v>1176</v>
       </c>
       <c r="P134">
         <v>826</v>
@@ -6197,6 +8693,27 @@
       <c r="H135" t="s">
         <v>244</v>
       </c>
+      <c r="I135" t="s">
+        <v>372</v>
+      </c>
+      <c r="J135" t="s">
+        <v>516</v>
+      </c>
+      <c r="K135" t="s">
+        <v>595</v>
+      </c>
+      <c r="L135" t="s">
+        <v>619</v>
+      </c>
+      <c r="M135" t="s">
+        <v>636</v>
+      </c>
+      <c r="N135" t="s">
+        <v>745</v>
+      </c>
+      <c r="O135">
+        <v>16</v>
+      </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" t="s">
@@ -6223,6 +8740,24 @@
       <c r="H136" t="s">
         <v>249</v>
       </c>
+      <c r="I136" t="s">
+        <v>373</v>
+      </c>
+      <c r="J136" t="s">
+        <v>517</v>
+      </c>
+      <c r="K136" t="s">
+        <v>544</v>
+      </c>
+      <c r="L136" t="s">
+        <v>625</v>
+      </c>
+      <c r="M136" t="s">
+        <v>705</v>
+      </c>
+      <c r="O136">
+        <v>5</v>
+      </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
@@ -6249,6 +8784,15 @@
       <c r="H137" t="s">
         <v>243</v>
       </c>
+      <c r="I137" t="s">
+        <v>374</v>
+      </c>
+      <c r="J137" t="s">
+        <v>455</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
       <c r="P137">
         <v>21</v>
       </c>
@@ -6272,6 +8816,27 @@
       <c r="G138">
         <v>1</v>
       </c>
+      <c r="I138" t="s">
+        <v>375</v>
+      </c>
+      <c r="J138" t="s">
+        <v>475</v>
+      </c>
+      <c r="K138" t="s">
+        <v>567</v>
+      </c>
+      <c r="L138" t="s">
+        <v>620</v>
+      </c>
+      <c r="M138" t="s">
+        <v>703</v>
+      </c>
+      <c r="N138" t="s">
+        <v>746</v>
+      </c>
+      <c r="O138">
+        <v>212</v>
+      </c>
       <c r="P138">
         <v>177</v>
       </c>
@@ -6301,6 +8866,24 @@
       <c r="H139" t="s">
         <v>243</v>
       </c>
+      <c r="I139" t="s">
+        <v>376</v>
+      </c>
+      <c r="J139" t="s">
+        <v>457</v>
+      </c>
+      <c r="K139" t="s">
+        <v>551</v>
+      </c>
+      <c r="L139" t="s">
+        <v>616</v>
+      </c>
+      <c r="M139" t="s">
+        <v>708</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
       <c r="P139">
         <v>10</v>
       </c>
@@ -6330,6 +8913,24 @@
       <c r="H140" t="s">
         <v>244</v>
       </c>
+      <c r="I140" t="s">
+        <v>377</v>
+      </c>
+      <c r="J140" t="s">
+        <v>452</v>
+      </c>
+      <c r="K140" t="s">
+        <v>548</v>
+      </c>
+      <c r="L140" t="s">
+        <v>625</v>
+      </c>
+      <c r="M140" t="s">
+        <v>709</v>
+      </c>
+      <c r="O140">
+        <v>30</v>
+      </c>
       <c r="P140">
         <v>10</v>
       </c>
@@ -6359,6 +8960,27 @@
       <c r="H141" t="s">
         <v>245</v>
       </c>
+      <c r="I141" t="s">
+        <v>378</v>
+      </c>
+      <c r="J141" t="s">
+        <v>459</v>
+      </c>
+      <c r="K141" t="s">
+        <v>553</v>
+      </c>
+      <c r="L141" t="s">
+        <v>615</v>
+      </c>
+      <c r="M141" t="s">
+        <v>710</v>
+      </c>
+      <c r="N141" t="s">
+        <v>746</v>
+      </c>
+      <c r="O141">
+        <v>98</v>
+      </c>
       <c r="P141">
         <v>161</v>
       </c>
@@ -6388,6 +9010,15 @@
       <c r="H142" t="s">
         <v>249</v>
       </c>
+      <c r="I142" t="s">
+        <v>379</v>
+      </c>
+      <c r="J142" t="s">
+        <v>455</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" t="s">
@@ -6414,6 +9045,24 @@
       <c r="H143" t="s">
         <v>243</v>
       </c>
+      <c r="I143" t="s">
+        <v>380</v>
+      </c>
+      <c r="J143" t="s">
+        <v>518</v>
+      </c>
+      <c r="K143" t="s">
+        <v>545</v>
+      </c>
+      <c r="L143" t="s">
+        <v>625</v>
+      </c>
+      <c r="M143" t="s">
+        <v>711</v>
+      </c>
+      <c r="O143">
+        <v>26</v>
+      </c>
       <c r="P143">
         <v>46</v>
       </c>
@@ -6443,6 +9092,27 @@
       <c r="H144" t="s">
         <v>246</v>
       </c>
+      <c r="I144" t="s">
+        <v>381</v>
+      </c>
+      <c r="J144" t="s">
+        <v>519</v>
+      </c>
+      <c r="K144" t="s">
+        <v>596</v>
+      </c>
+      <c r="L144" t="s">
+        <v>616</v>
+      </c>
+      <c r="M144" t="s">
+        <v>666</v>
+      </c>
+      <c r="N144" t="s">
+        <v>746</v>
+      </c>
+      <c r="O144">
+        <v>96</v>
+      </c>
       <c r="P144">
         <v>64</v>
       </c>
@@ -6472,6 +9142,27 @@
       <c r="H145" t="s">
         <v>245</v>
       </c>
+      <c r="I145" t="s">
+        <v>381</v>
+      </c>
+      <c r="J145" t="s">
+        <v>519</v>
+      </c>
+      <c r="K145" t="s">
+        <v>596</v>
+      </c>
+      <c r="L145" t="s">
+        <v>616</v>
+      </c>
+      <c r="M145" t="s">
+        <v>666</v>
+      </c>
+      <c r="N145" t="s">
+        <v>746</v>
+      </c>
+      <c r="O145">
+        <v>96</v>
+      </c>
       <c r="P145">
         <v>64</v>
       </c>
@@ -6501,6 +9192,24 @@
       <c r="H146" t="s">
         <v>243</v>
       </c>
+      <c r="I146" t="s">
+        <v>382</v>
+      </c>
+      <c r="J146" t="s">
+        <v>520</v>
+      </c>
+      <c r="K146" t="s">
+        <v>597</v>
+      </c>
+      <c r="L146" t="s">
+        <v>621</v>
+      </c>
+      <c r="M146" t="s">
+        <v>654</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
       <c r="P146">
         <v>157</v>
       </c>
@@ -6530,6 +9239,24 @@
       <c r="H147" t="s">
         <v>243</v>
       </c>
+      <c r="I147" t="s">
+        <v>383</v>
+      </c>
+      <c r="J147" t="s">
+        <v>502</v>
+      </c>
+      <c r="K147" t="s">
+        <v>577</v>
+      </c>
+      <c r="L147" t="s">
+        <v>621</v>
+      </c>
+      <c r="M147" t="s">
+        <v>712</v>
+      </c>
+      <c r="O147">
+        <v>47</v>
+      </c>
       <c r="P147">
         <v>51</v>
       </c>
@@ -6559,6 +9286,24 @@
       <c r="H148" t="s">
         <v>245</v>
       </c>
+      <c r="I148" t="s">
+        <v>384</v>
+      </c>
+      <c r="J148" t="s">
+        <v>521</v>
+      </c>
+      <c r="K148" t="s">
+        <v>598</v>
+      </c>
+      <c r="L148" t="s">
+        <v>627</v>
+      </c>
+      <c r="M148" t="s">
+        <v>713</v>
+      </c>
+      <c r="O148">
+        <v>29</v>
+      </c>
       <c r="P148">
         <v>35</v>
       </c>
@@ -6588,6 +9333,24 @@
       <c r="H149" t="s">
         <v>244</v>
       </c>
+      <c r="I149" t="s">
+        <v>385</v>
+      </c>
+      <c r="J149" t="s">
+        <v>457</v>
+      </c>
+      <c r="K149" t="s">
+        <v>551</v>
+      </c>
+      <c r="L149" t="s">
+        <v>621</v>
+      </c>
+      <c r="M149" t="s">
+        <v>714</v>
+      </c>
+      <c r="O149">
+        <v>2789</v>
+      </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" t="s">
@@ -6614,6 +9377,24 @@
       <c r="H150" t="s">
         <v>246</v>
       </c>
+      <c r="I150" t="s">
+        <v>386</v>
+      </c>
+      <c r="J150" t="s">
+        <v>469</v>
+      </c>
+      <c r="K150" t="s">
+        <v>562</v>
+      </c>
+      <c r="L150" t="s">
+        <v>625</v>
+      </c>
+      <c r="M150" t="s">
+        <v>700</v>
+      </c>
+      <c r="O150">
+        <v>52</v>
+      </c>
       <c r="P150">
         <v>65</v>
       </c>
@@ -6643,6 +9424,15 @@
       <c r="H151" t="s">
         <v>243</v>
       </c>
+      <c r="I151" t="s">
+        <v>387</v>
+      </c>
+      <c r="J151" t="s">
+        <v>455</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
       <c r="P151">
         <v>558</v>
       </c>
@@ -6672,6 +9462,24 @@
       <c r="H152" t="s">
         <v>245</v>
       </c>
+      <c r="I152" t="s">
+        <v>388</v>
+      </c>
+      <c r="J152" t="s">
+        <v>522</v>
+      </c>
+      <c r="K152" t="s">
+        <v>599</v>
+      </c>
+      <c r="L152" t="s">
+        <v>619</v>
+      </c>
+      <c r="M152" t="s">
+        <v>715</v>
+      </c>
+      <c r="O152">
+        <v>26</v>
+      </c>
       <c r="P152">
         <v>1</v>
       </c>
@@ -6701,6 +9509,24 @@
       <c r="H153" t="s">
         <v>245</v>
       </c>
+      <c r="I153" t="s">
+        <v>388</v>
+      </c>
+      <c r="J153" t="s">
+        <v>522</v>
+      </c>
+      <c r="K153" t="s">
+        <v>599</v>
+      </c>
+      <c r="L153" t="s">
+        <v>619</v>
+      </c>
+      <c r="M153" t="s">
+        <v>715</v>
+      </c>
+      <c r="O153">
+        <v>26</v>
+      </c>
       <c r="P153">
         <v>32</v>
       </c>
@@ -6730,6 +9556,27 @@
       <c r="H154" t="s">
         <v>242</v>
       </c>
+      <c r="I154" t="s">
+        <v>389</v>
+      </c>
+      <c r="J154" t="s">
+        <v>523</v>
+      </c>
+      <c r="K154" t="s">
+        <v>544</v>
+      </c>
+      <c r="L154" t="s">
+        <v>616</v>
+      </c>
+      <c r="M154" t="s">
+        <v>716</v>
+      </c>
+      <c r="N154" t="s">
+        <v>746</v>
+      </c>
+      <c r="O154">
+        <v>96</v>
+      </c>
       <c r="P154">
         <v>110</v>
       </c>
@@ -6760,19 +9607,19 @@
         <v>248</v>
       </c>
       <c r="I155" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="J155" t="s">
-        <v>329</v>
+        <v>459</v>
       </c>
       <c r="K155" t="s">
-        <v>362</v>
+        <v>553</v>
       </c>
       <c r="L155" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="M155" t="s">
-        <v>396</v>
+        <v>659</v>
       </c>
       <c r="O155">
         <v>123</v>
@@ -6806,6 +9653,24 @@
       <c r="H156" t="s">
         <v>244</v>
       </c>
+      <c r="I156" t="s">
+        <v>391</v>
+      </c>
+      <c r="J156" t="s">
+        <v>524</v>
+      </c>
+      <c r="K156" t="s">
+        <v>545</v>
+      </c>
+      <c r="L156" t="s">
+        <v>621</v>
+      </c>
+      <c r="M156" t="s">
+        <v>641</v>
+      </c>
+      <c r="O156">
+        <v>2</v>
+      </c>
       <c r="P156">
         <v>26</v>
       </c>
@@ -6835,6 +9700,15 @@
       <c r="H157" t="s">
         <v>244</v>
       </c>
+      <c r="I157" t="s">
+        <v>392</v>
+      </c>
+      <c r="J157" t="s">
+        <v>455</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
       <c r="P157">
         <v>14</v>
       </c>
@@ -6865,25 +9739,25 @@
         <v>245</v>
       </c>
       <c r="I158" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="J158" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="K158" t="s">
-        <v>363</v>
+        <v>600</v>
       </c>
       <c r="L158" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="M158" t="s">
-        <v>416</v>
+        <v>686</v>
       </c>
       <c r="N158" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O158">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -6912,25 +9786,25 @@
         <v>243</v>
       </c>
       <c r="I159" t="s">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="J159" t="s">
-        <v>331</v>
+        <v>526</v>
       </c>
       <c r="K159" t="s">
-        <v>364</v>
+        <v>601</v>
       </c>
       <c r="L159" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M159" t="s">
-        <v>417</v>
+        <v>717</v>
       </c>
       <c r="N159" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O159">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P159">
         <v>185</v>
@@ -6955,6 +9829,27 @@
       <c r="G160">
         <v>1</v>
       </c>
+      <c r="I160" t="s">
+        <v>395</v>
+      </c>
+      <c r="J160" t="s">
+        <v>457</v>
+      </c>
+      <c r="K160" t="s">
+        <v>551</v>
+      </c>
+      <c r="L160" t="s">
+        <v>619</v>
+      </c>
+      <c r="M160" t="s">
+        <v>718</v>
+      </c>
+      <c r="N160" t="s">
+        <v>745</v>
+      </c>
+      <c r="O160">
+        <v>1830</v>
+      </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
@@ -6982,25 +9877,25 @@
         <v>246</v>
       </c>
       <c r="I161" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="J161" t="s">
-        <v>332</v>
+        <v>527</v>
       </c>
       <c r="K161" t="s">
-        <v>365</v>
+        <v>602</v>
       </c>
       <c r="L161" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="M161" t="s">
-        <v>413</v>
+        <v>704</v>
       </c>
       <c r="N161" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O161">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P161">
         <v>98</v>
@@ -7052,25 +9947,25 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="J163" t="s">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="K163" t="s">
-        <v>366</v>
+        <v>603</v>
       </c>
       <c r="L163" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M163" t="s">
-        <v>411</v>
+        <v>703</v>
       </c>
       <c r="N163" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O163">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="P163">
         <v>348</v>
@@ -7101,6 +9996,24 @@
       <c r="H164" t="s">
         <v>244</v>
       </c>
+      <c r="I164" t="s">
+        <v>398</v>
+      </c>
+      <c r="J164" t="s">
+        <v>529</v>
+      </c>
+      <c r="K164" t="s">
+        <v>604</v>
+      </c>
+      <c r="L164" t="s">
+        <v>616</v>
+      </c>
+      <c r="M164" t="s">
+        <v>719</v>
+      </c>
+      <c r="O164">
+        <v>36</v>
+      </c>
       <c r="P164">
         <v>42</v>
       </c>
@@ -7130,6 +10043,24 @@
       <c r="H165" t="s">
         <v>244</v>
       </c>
+      <c r="I165" t="s">
+        <v>399</v>
+      </c>
+      <c r="J165" t="s">
+        <v>467</v>
+      </c>
+      <c r="K165" t="s">
+        <v>560</v>
+      </c>
+      <c r="L165" t="s">
+        <v>620</v>
+      </c>
+      <c r="M165" t="s">
+        <v>720</v>
+      </c>
+      <c r="O165">
+        <v>17</v>
+      </c>
       <c r="P165">
         <v>5</v>
       </c>
@@ -7159,6 +10090,24 @@
       <c r="H166" t="s">
         <v>243</v>
       </c>
+      <c r="I166" t="s">
+        <v>400</v>
+      </c>
+      <c r="J166" t="s">
+        <v>503</v>
+      </c>
+      <c r="K166" t="s">
+        <v>587</v>
+      </c>
+      <c r="L166" t="s">
+        <v>622</v>
+      </c>
+      <c r="M166" t="s">
+        <v>721</v>
+      </c>
+      <c r="O166">
+        <v>29</v>
+      </c>
       <c r="P166">
         <v>26</v>
       </c>
@@ -7188,6 +10137,27 @@
       <c r="H167" t="s">
         <v>242</v>
       </c>
+      <c r="I167" t="s">
+        <v>401</v>
+      </c>
+      <c r="J167" t="s">
+        <v>530</v>
+      </c>
+      <c r="K167" t="s">
+        <v>605</v>
+      </c>
+      <c r="L167" t="s">
+        <v>624</v>
+      </c>
+      <c r="M167" t="s">
+        <v>657</v>
+      </c>
+      <c r="N167" t="s">
+        <v>746</v>
+      </c>
+      <c r="O167">
+        <v>37</v>
+      </c>
       <c r="P167">
         <v>37</v>
       </c>
@@ -7217,6 +10187,27 @@
       <c r="H168" t="s">
         <v>244</v>
       </c>
+      <c r="I168" t="s">
+        <v>402</v>
+      </c>
+      <c r="J168" t="s">
+        <v>528</v>
+      </c>
+      <c r="K168" t="s">
+        <v>603</v>
+      </c>
+      <c r="L168" t="s">
+        <v>622</v>
+      </c>
+      <c r="M168" t="s">
+        <v>722</v>
+      </c>
+      <c r="N168" t="s">
+        <v>746</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
@@ -7243,6 +10234,24 @@
       <c r="H169" t="s">
         <v>245</v>
       </c>
+      <c r="I169" t="s">
+        <v>403</v>
+      </c>
+      <c r="J169" t="s">
+        <v>493</v>
+      </c>
+      <c r="K169" t="s">
+        <v>579</v>
+      </c>
+      <c r="L169" t="s">
+        <v>623</v>
+      </c>
+      <c r="M169" t="s">
+        <v>704</v>
+      </c>
+      <c r="O169">
+        <v>30</v>
+      </c>
       <c r="P169">
         <v>61</v>
       </c>
@@ -7272,6 +10281,24 @@
       <c r="H170" t="s">
         <v>243</v>
       </c>
+      <c r="I170" t="s">
+        <v>404</v>
+      </c>
+      <c r="J170" t="s">
+        <v>531</v>
+      </c>
+      <c r="K170" t="s">
+        <v>544</v>
+      </c>
+      <c r="L170" t="s">
+        <v>623</v>
+      </c>
+      <c r="M170" t="s">
+        <v>647</v>
+      </c>
+      <c r="O170">
+        <v>8</v>
+      </c>
       <c r="P170">
         <v>66</v>
       </c>
@@ -7301,6 +10328,24 @@
       <c r="H171" t="s">
         <v>244</v>
       </c>
+      <c r="I171" t="s">
+        <v>405</v>
+      </c>
+      <c r="J171" t="s">
+        <v>507</v>
+      </c>
+      <c r="K171" t="s">
+        <v>606</v>
+      </c>
+      <c r="L171" t="s">
+        <v>617</v>
+      </c>
+      <c r="M171" t="s">
+        <v>723</v>
+      </c>
+      <c r="O171">
+        <v>28</v>
+      </c>
       <c r="P171">
         <v>56</v>
       </c>
@@ -7330,6 +10375,27 @@
       <c r="H172" t="s">
         <v>245</v>
       </c>
+      <c r="I172" t="s">
+        <v>406</v>
+      </c>
+      <c r="J172" t="s">
+        <v>532</v>
+      </c>
+      <c r="K172" t="s">
+        <v>607</v>
+      </c>
+      <c r="L172" t="s">
+        <v>620</v>
+      </c>
+      <c r="M172" t="s">
+        <v>724</v>
+      </c>
+      <c r="N172" t="s">
+        <v>746</v>
+      </c>
+      <c r="O172">
+        <v>116</v>
+      </c>
       <c r="P172">
         <v>58</v>
       </c>
@@ -7353,6 +10419,27 @@
       <c r="G173">
         <v>1</v>
       </c>
+      <c r="I173" t="s">
+        <v>407</v>
+      </c>
+      <c r="J173" t="s">
+        <v>464</v>
+      </c>
+      <c r="K173" t="s">
+        <v>557</v>
+      </c>
+      <c r="L173" t="s">
+        <v>627</v>
+      </c>
+      <c r="M173" t="s">
+        <v>725</v>
+      </c>
+      <c r="N173" t="s">
+        <v>746</v>
+      </c>
+      <c r="O173">
+        <v>2703</v>
+      </c>
       <c r="P173">
         <v>3269</v>
       </c>
@@ -7382,6 +10469,27 @@
       <c r="H174" t="s">
         <v>248</v>
       </c>
+      <c r="I174" t="s">
+        <v>408</v>
+      </c>
+      <c r="J174" t="s">
+        <v>470</v>
+      </c>
+      <c r="K174" t="s">
+        <v>563</v>
+      </c>
+      <c r="L174" t="s">
+        <v>625</v>
+      </c>
+      <c r="M174" t="s">
+        <v>726</v>
+      </c>
+      <c r="N174" t="s">
+        <v>746</v>
+      </c>
+      <c r="O174">
+        <v>46</v>
+      </c>
       <c r="P174">
         <v>47</v>
       </c>
@@ -7406,25 +10514,25 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>291</v>
+        <v>409</v>
       </c>
       <c r="J175" t="s">
-        <v>322</v>
+        <v>475</v>
       </c>
       <c r="K175" t="s">
-        <v>357</v>
+        <v>567</v>
       </c>
       <c r="L175" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="M175" t="s">
-        <v>412</v>
+        <v>647</v>
       </c>
       <c r="N175" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O175">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P175">
         <v>289</v>
@@ -7455,6 +10563,15 @@
       <c r="H176" t="s">
         <v>243</v>
       </c>
+      <c r="I176" t="s">
+        <v>410</v>
+      </c>
+      <c r="J176" t="s">
+        <v>455</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
       <c r="P176">
         <v>38</v>
       </c>
@@ -7484,6 +10601,27 @@
       <c r="H177" t="s">
         <v>243</v>
       </c>
+      <c r="I177" t="s">
+        <v>411</v>
+      </c>
+      <c r="J177" t="s">
+        <v>529</v>
+      </c>
+      <c r="K177" t="s">
+        <v>604</v>
+      </c>
+      <c r="L177" t="s">
+        <v>620</v>
+      </c>
+      <c r="M177" t="s">
+        <v>727</v>
+      </c>
+      <c r="N177" t="s">
+        <v>746</v>
+      </c>
+      <c r="O177">
+        <v>2010</v>
+      </c>
       <c r="P177">
         <v>1863</v>
       </c>
@@ -7513,6 +10651,27 @@
       <c r="H178" t="s">
         <v>247</v>
       </c>
+      <c r="I178" t="s">
+        <v>412</v>
+      </c>
+      <c r="J178" t="s">
+        <v>533</v>
+      </c>
+      <c r="K178" t="s">
+        <v>608</v>
+      </c>
+      <c r="L178" t="s">
+        <v>619</v>
+      </c>
+      <c r="M178" t="s">
+        <v>634</v>
+      </c>
+      <c r="N178" t="s">
+        <v>746</v>
+      </c>
+      <c r="O178">
+        <v>73</v>
+      </c>
       <c r="P178">
         <v>77</v>
       </c>
@@ -7542,6 +10701,27 @@
       <c r="H179" t="s">
         <v>244</v>
       </c>
+      <c r="I179" t="s">
+        <v>412</v>
+      </c>
+      <c r="J179" t="s">
+        <v>533</v>
+      </c>
+      <c r="K179" t="s">
+        <v>608</v>
+      </c>
+      <c r="L179" t="s">
+        <v>619</v>
+      </c>
+      <c r="M179" t="s">
+        <v>634</v>
+      </c>
+      <c r="N179" t="s">
+        <v>746</v>
+      </c>
+      <c r="O179">
+        <v>73</v>
+      </c>
       <c r="P179">
         <v>77</v>
       </c>
@@ -7571,6 +10751,27 @@
       <c r="H180" t="s">
         <v>245</v>
       </c>
+      <c r="I180" t="s">
+        <v>412</v>
+      </c>
+      <c r="J180" t="s">
+        <v>533</v>
+      </c>
+      <c r="K180" t="s">
+        <v>608</v>
+      </c>
+      <c r="L180" t="s">
+        <v>619</v>
+      </c>
+      <c r="M180" t="s">
+        <v>634</v>
+      </c>
+      <c r="N180" t="s">
+        <v>746</v>
+      </c>
+      <c r="O180">
+        <v>73</v>
+      </c>
       <c r="P180">
         <v>77</v>
       </c>
@@ -7601,25 +10802,25 @@
         <v>244</v>
       </c>
       <c r="I181" t="s">
-        <v>292</v>
+        <v>413</v>
       </c>
       <c r="J181" t="s">
-        <v>334</v>
+        <v>534</v>
       </c>
       <c r="K181" t="s">
-        <v>367</v>
+        <v>609</v>
       </c>
       <c r="L181" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M181" t="s">
-        <v>418</v>
+        <v>684</v>
       </c>
       <c r="N181" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O181">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -7648,22 +10849,22 @@
         <v>249</v>
       </c>
       <c r="I182" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
       <c r="J182" t="s">
-        <v>335</v>
+        <v>506</v>
       </c>
       <c r="K182" t="s">
-        <v>368</v>
+        <v>589</v>
       </c>
       <c r="L182" t="s">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="M182" t="s">
-        <v>419</v>
+        <v>728</v>
       </c>
       <c r="N182" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O182">
         <v>125</v>
@@ -7698,25 +10899,25 @@
         <v>244</v>
       </c>
       <c r="I183" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="J183" t="s">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="K183" t="s">
-        <v>366</v>
+        <v>603</v>
       </c>
       <c r="L183" t="s">
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="M183" t="s">
-        <v>420</v>
+        <v>729</v>
       </c>
       <c r="N183" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O183">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P183">
         <v>53</v>
@@ -7747,6 +10948,27 @@
       <c r="H184" t="s">
         <v>243</v>
       </c>
+      <c r="I184" t="s">
+        <v>416</v>
+      </c>
+      <c r="J184" t="s">
+        <v>462</v>
+      </c>
+      <c r="K184" t="s">
+        <v>555</v>
+      </c>
+      <c r="L184" t="s">
+        <v>620</v>
+      </c>
+      <c r="M184" t="s">
+        <v>673</v>
+      </c>
+      <c r="N184" t="s">
+        <v>746</v>
+      </c>
+      <c r="O184">
+        <v>47</v>
+      </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
@@ -7773,6 +10995,27 @@
       <c r="H185" t="s">
         <v>246</v>
       </c>
+      <c r="I185" t="s">
+        <v>417</v>
+      </c>
+      <c r="J185" t="s">
+        <v>469</v>
+      </c>
+      <c r="K185" t="s">
+        <v>562</v>
+      </c>
+      <c r="L185" t="s">
+        <v>616</v>
+      </c>
+      <c r="M185" t="s">
+        <v>631</v>
+      </c>
+      <c r="N185" t="s">
+        <v>746</v>
+      </c>
+      <c r="O185">
+        <v>53</v>
+      </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
@@ -7799,6 +11042,27 @@
       <c r="H186" t="s">
         <v>247</v>
       </c>
+      <c r="I186" t="s">
+        <v>418</v>
+      </c>
+      <c r="J186" t="s">
+        <v>499</v>
+      </c>
+      <c r="K186" t="s">
+        <v>585</v>
+      </c>
+      <c r="L186" t="s">
+        <v>619</v>
+      </c>
+      <c r="M186" t="s">
+        <v>730</v>
+      </c>
+      <c r="N186" t="s">
+        <v>746</v>
+      </c>
+      <c r="O186">
+        <v>118</v>
+      </c>
       <c r="P186">
         <v>62</v>
       </c>
@@ -7828,6 +11092,24 @@
       <c r="H187" t="s">
         <v>244</v>
       </c>
+      <c r="I187" t="s">
+        <v>419</v>
+      </c>
+      <c r="J187" t="s">
+        <v>482</v>
+      </c>
+      <c r="K187" t="s">
+        <v>544</v>
+      </c>
+      <c r="L187" t="s">
+        <v>616</v>
+      </c>
+      <c r="M187" t="s">
+        <v>731</v>
+      </c>
+      <c r="O187">
+        <v>10</v>
+      </c>
       <c r="P187">
         <v>15</v>
       </c>
@@ -7857,6 +11139,27 @@
       <c r="H188" t="s">
         <v>251</v>
       </c>
+      <c r="I188" t="s">
+        <v>420</v>
+      </c>
+      <c r="J188" t="s">
+        <v>476</v>
+      </c>
+      <c r="K188" t="s">
+        <v>545</v>
+      </c>
+      <c r="L188" t="s">
+        <v>620</v>
+      </c>
+      <c r="M188" t="s">
+        <v>724</v>
+      </c>
+      <c r="N188" t="s">
+        <v>746</v>
+      </c>
+      <c r="O188">
+        <v>2</v>
+      </c>
       <c r="P188">
         <v>1</v>
       </c>
@@ -7881,25 +11184,25 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="J189" t="s">
-        <v>336</v>
+        <v>535</v>
       </c>
       <c r="K189" t="s">
-        <v>369</v>
+        <v>610</v>
       </c>
       <c r="L189" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M189" t="s">
-        <v>411</v>
+        <v>703</v>
       </c>
       <c r="N189" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O189">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P189">
         <v>59</v>
@@ -7925,25 +11228,25 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="J190" t="s">
-        <v>336</v>
+        <v>535</v>
       </c>
       <c r="K190" t="s">
-        <v>369</v>
+        <v>610</v>
       </c>
       <c r="L190" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M190" t="s">
-        <v>411</v>
+        <v>703</v>
       </c>
       <c r="N190" t="s">
-        <v>426</v>
+        <v>745</v>
       </c>
       <c r="O190">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P190">
         <v>18</v>
@@ -7974,6 +11277,27 @@
       <c r="H191" t="s">
         <v>245</v>
       </c>
+      <c r="I191" t="s">
+        <v>422</v>
+      </c>
+      <c r="J191" t="s">
+        <v>536</v>
+      </c>
+      <c r="K191" t="s">
+        <v>611</v>
+      </c>
+      <c r="L191" t="s">
+        <v>620</v>
+      </c>
+      <c r="M191" t="s">
+        <v>732</v>
+      </c>
+      <c r="N191" t="s">
+        <v>746</v>
+      </c>
+      <c r="O191">
+        <v>14</v>
+      </c>
       <c r="P191">
         <v>16</v>
       </c>
@@ -8003,6 +11327,27 @@
       <c r="H192" t="s">
         <v>250</v>
       </c>
+      <c r="I192" t="s">
+        <v>423</v>
+      </c>
+      <c r="J192" t="s">
+        <v>515</v>
+      </c>
+      <c r="K192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L192" t="s">
+        <v>614</v>
+      </c>
+      <c r="M192" t="s">
+        <v>733</v>
+      </c>
+      <c r="N192" t="s">
+        <v>746</v>
+      </c>
+      <c r="O192">
+        <v>130</v>
+      </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" t="s">
@@ -8023,6 +11368,27 @@
       <c r="G193">
         <v>2</v>
       </c>
+      <c r="I193" t="s">
+        <v>424</v>
+      </c>
+      <c r="J193" t="s">
+        <v>457</v>
+      </c>
+      <c r="K193" t="s">
+        <v>551</v>
+      </c>
+      <c r="L193" t="s">
+        <v>625</v>
+      </c>
+      <c r="M193" t="s">
+        <v>655</v>
+      </c>
+      <c r="N193" t="s">
+        <v>746</v>
+      </c>
+      <c r="O193">
+        <v>70</v>
+      </c>
       <c r="P193">
         <v>77</v>
       </c>
@@ -8052,6 +11418,27 @@
       <c r="H194" t="s">
         <v>249</v>
       </c>
+      <c r="I194" t="s">
+        <v>425</v>
+      </c>
+      <c r="J194" t="s">
+        <v>523</v>
+      </c>
+      <c r="K194" t="s">
+        <v>544</v>
+      </c>
+      <c r="L194" t="s">
+        <v>624</v>
+      </c>
+      <c r="M194" t="s">
+        <v>657</v>
+      </c>
+      <c r="N194" t="s">
+        <v>746</v>
+      </c>
+      <c r="O194">
+        <v>10</v>
+      </c>
     </row>
     <row r="195" spans="1:16">
       <c r="A195" t="s">
@@ -8078,6 +11465,27 @@
       <c r="H195" t="s">
         <v>244</v>
       </c>
+      <c r="I195" t="s">
+        <v>426</v>
+      </c>
+      <c r="J195" t="s">
+        <v>499</v>
+      </c>
+      <c r="K195" t="s">
+        <v>585</v>
+      </c>
+      <c r="L195" t="s">
+        <v>614</v>
+      </c>
+      <c r="M195" t="s">
+        <v>734</v>
+      </c>
+      <c r="N195" t="s">
+        <v>745</v>
+      </c>
+      <c r="O195">
+        <v>836</v>
+      </c>
     </row>
     <row r="196" spans="1:16">
       <c r="A196" t="s">
@@ -8099,25 +11507,25 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="J196" t="s">
-        <v>337</v>
+        <v>537</v>
       </c>
       <c r="K196" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="L196" t="s">
-        <v>378</v>
+        <v>616</v>
       </c>
       <c r="M196" t="s">
-        <v>390</v>
+        <v>631</v>
       </c>
       <c r="N196" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O196">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -8145,6 +11553,27 @@
       <c r="H197" t="s">
         <v>250</v>
       </c>
+      <c r="I197" t="s">
+        <v>428</v>
+      </c>
+      <c r="J197" t="s">
+        <v>525</v>
+      </c>
+      <c r="K197" t="s">
+        <v>600</v>
+      </c>
+      <c r="L197" t="s">
+        <v>619</v>
+      </c>
+      <c r="M197" t="s">
+        <v>735</v>
+      </c>
+      <c r="N197" t="s">
+        <v>746</v>
+      </c>
+      <c r="O197">
+        <v>86</v>
+      </c>
       <c r="P197">
         <v>91</v>
       </c>
@@ -8174,6 +11603,27 @@
       <c r="H198" t="s">
         <v>243</v>
       </c>
+      <c r="I198" t="s">
+        <v>429</v>
+      </c>
+      <c r="J198" t="s">
+        <v>502</v>
+      </c>
+      <c r="K198" t="s">
+        <v>577</v>
+      </c>
+      <c r="L198" t="s">
+        <v>620</v>
+      </c>
+      <c r="M198" t="s">
+        <v>736</v>
+      </c>
+      <c r="N198" t="s">
+        <v>746</v>
+      </c>
+      <c r="O198">
+        <v>61</v>
+      </c>
       <c r="P198">
         <v>23</v>
       </c>
@@ -8203,6 +11653,27 @@
       <c r="H199" t="s">
         <v>243</v>
       </c>
+      <c r="I199" t="s">
+        <v>429</v>
+      </c>
+      <c r="J199" t="s">
+        <v>502</v>
+      </c>
+      <c r="K199" t="s">
+        <v>577</v>
+      </c>
+      <c r="L199" t="s">
+        <v>620</v>
+      </c>
+      <c r="M199" t="s">
+        <v>736</v>
+      </c>
+      <c r="N199" t="s">
+        <v>746</v>
+      </c>
+      <c r="O199">
+        <v>61</v>
+      </c>
       <c r="P199">
         <v>69</v>
       </c>
@@ -8232,6 +11703,27 @@
       <c r="H200" t="s">
         <v>242</v>
       </c>
+      <c r="I200" t="s">
+        <v>430</v>
+      </c>
+      <c r="J200" t="s">
+        <v>515</v>
+      </c>
+      <c r="K200" t="s">
+        <v>594</v>
+      </c>
+      <c r="L200" t="s">
+        <v>620</v>
+      </c>
+      <c r="M200" t="s">
+        <v>737</v>
+      </c>
+      <c r="N200" t="s">
+        <v>746</v>
+      </c>
+      <c r="O200">
+        <v>47</v>
+      </c>
       <c r="P200">
         <v>50</v>
       </c>
@@ -8290,6 +11782,27 @@
       <c r="H202" t="s">
         <v>251</v>
       </c>
+      <c r="I202" t="s">
+        <v>431</v>
+      </c>
+      <c r="J202" t="s">
+        <v>528</v>
+      </c>
+      <c r="K202" t="s">
+        <v>603</v>
+      </c>
+      <c r="L202" t="s">
+        <v>626</v>
+      </c>
+      <c r="M202" t="s">
+        <v>692</v>
+      </c>
+      <c r="N202" t="s">
+        <v>746</v>
+      </c>
+      <c r="O202">
+        <v>44</v>
+      </c>
       <c r="P202">
         <v>426</v>
       </c>
@@ -8319,6 +11832,27 @@
       <c r="H203" t="s">
         <v>242</v>
       </c>
+      <c r="I203" t="s">
+        <v>432</v>
+      </c>
+      <c r="J203" t="s">
+        <v>457</v>
+      </c>
+      <c r="K203" t="s">
+        <v>551</v>
+      </c>
+      <c r="L203" t="s">
+        <v>617</v>
+      </c>
+      <c r="M203" t="s">
+        <v>738</v>
+      </c>
+      <c r="N203" t="s">
+        <v>746</v>
+      </c>
+      <c r="O203">
+        <v>63</v>
+      </c>
       <c r="P203">
         <v>68</v>
       </c>
@@ -8348,6 +11882,27 @@
       <c r="H204" t="s">
         <v>245</v>
       </c>
+      <c r="I204" t="s">
+        <v>433</v>
+      </c>
+      <c r="J204" t="s">
+        <v>538</v>
+      </c>
+      <c r="K204" t="s">
+        <v>612</v>
+      </c>
+      <c r="L204" t="s">
+        <v>617</v>
+      </c>
+      <c r="M204" t="s">
+        <v>632</v>
+      </c>
+      <c r="N204" t="s">
+        <v>746</v>
+      </c>
+      <c r="O204">
+        <v>8</v>
+      </c>
     </row>
     <row r="205" spans="1:16">
       <c r="A205" t="s">
@@ -8375,25 +11930,25 @@
         <v>248</v>
       </c>
       <c r="I205" t="s">
-        <v>297</v>
+        <v>434</v>
       </c>
       <c r="J205" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="K205" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="L205" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M205" t="s">
-        <v>421</v>
+        <v>739</v>
       </c>
       <c r="N205" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O205">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P205">
         <v>119</v>
@@ -8425,22 +11980,22 @@
         <v>242</v>
       </c>
       <c r="I206" t="s">
-        <v>298</v>
+        <v>435</v>
       </c>
       <c r="J206" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="K206" t="s">
-        <v>370</v>
+        <v>552</v>
       </c>
       <c r="L206" t="s">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="M206" t="s">
-        <v>422</v>
+        <v>740</v>
       </c>
       <c r="N206" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O206">
         <v>116</v>
@@ -8497,6 +12052,27 @@
       <c r="H208" t="s">
         <v>250</v>
       </c>
+      <c r="I208" t="s">
+        <v>436</v>
+      </c>
+      <c r="J208" t="s">
+        <v>539</v>
+      </c>
+      <c r="K208" t="s">
+        <v>544</v>
+      </c>
+      <c r="L208" t="s">
+        <v>621</v>
+      </c>
+      <c r="M208" t="s">
+        <v>741</v>
+      </c>
+      <c r="N208" t="s">
+        <v>746</v>
+      </c>
+      <c r="O208">
+        <v>19</v>
+      </c>
       <c r="P208">
         <v>18</v>
       </c>
@@ -8521,25 +12097,25 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>299</v>
+        <v>437</v>
       </c>
       <c r="J209" t="s">
-        <v>327</v>
+        <v>513</v>
       </c>
       <c r="K209" t="s">
-        <v>360</v>
+        <v>593</v>
       </c>
       <c r="L209" t="s">
-        <v>372</v>
+        <v>614</v>
       </c>
       <c r="M209" t="s">
-        <v>423</v>
+        <v>733</v>
       </c>
       <c r="N209" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O209">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -8567,6 +12143,27 @@
       <c r="H210" t="s">
         <v>244</v>
       </c>
+      <c r="I210" t="s">
+        <v>268</v>
+      </c>
+      <c r="J210" t="s">
+        <v>459</v>
+      </c>
+      <c r="K210" t="s">
+        <v>553</v>
+      </c>
+      <c r="L210" t="s">
+        <v>620</v>
+      </c>
+      <c r="M210" t="s">
+        <v>639</v>
+      </c>
+      <c r="N210" t="s">
+        <v>746</v>
+      </c>
+      <c r="O210">
+        <v>90</v>
+      </c>
       <c r="P210">
         <v>122</v>
       </c>
@@ -8596,6 +12193,27 @@
       <c r="H211" t="s">
         <v>251</v>
       </c>
+      <c r="I211" t="s">
+        <v>438</v>
+      </c>
+      <c r="J211" t="s">
+        <v>540</v>
+      </c>
+      <c r="K211" t="s">
+        <v>613</v>
+      </c>
+      <c r="L211" t="s">
+        <v>614</v>
+      </c>
+      <c r="M211" t="s">
+        <v>742</v>
+      </c>
+      <c r="N211" t="s">
+        <v>746</v>
+      </c>
+      <c r="O211">
+        <v>12</v>
+      </c>
       <c r="P211">
         <v>32</v>
       </c>
@@ -8620,25 +12238,25 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="J212" t="s">
-        <v>321</v>
+        <v>503</v>
       </c>
       <c r="K212" t="s">
-        <v>356</v>
+        <v>587</v>
       </c>
       <c r="L212" t="s">
-        <v>377</v>
+        <v>620</v>
       </c>
       <c r="M212" t="s">
-        <v>424</v>
+        <v>743</v>
       </c>
       <c r="N212" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O212">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="P212">
         <v>507</v>
@@ -8669,6 +12287,27 @@
       <c r="H213" t="s">
         <v>246</v>
       </c>
+      <c r="I213" t="s">
+        <v>440</v>
+      </c>
+      <c r="J213" t="s">
+        <v>457</v>
+      </c>
+      <c r="K213" t="s">
+        <v>551</v>
+      </c>
+      <c r="L213" t="s">
+        <v>620</v>
+      </c>
+      <c r="M213" t="s">
+        <v>703</v>
+      </c>
+      <c r="N213" t="s">
+        <v>746</v>
+      </c>
+      <c r="O213">
+        <v>40</v>
+      </c>
       <c r="P213">
         <v>48</v>
       </c>
@@ -8698,6 +12337,27 @@
       <c r="H214" t="s">
         <v>245</v>
       </c>
+      <c r="I214" t="s">
+        <v>441</v>
+      </c>
+      <c r="J214" t="s">
+        <v>475</v>
+      </c>
+      <c r="K214" t="s">
+        <v>567</v>
+      </c>
+      <c r="L214" t="s">
+        <v>621</v>
+      </c>
+      <c r="M214" t="s">
+        <v>644</v>
+      </c>
+      <c r="N214" t="s">
+        <v>746</v>
+      </c>
+      <c r="O214">
+        <v>28</v>
+      </c>
       <c r="P214">
         <v>31</v>
       </c>
@@ -8727,6 +12387,27 @@
       <c r="H215" t="s">
         <v>248</v>
       </c>
+      <c r="I215" t="s">
+        <v>442</v>
+      </c>
+      <c r="J215" t="s">
+        <v>541</v>
+      </c>
+      <c r="K215" t="s">
+        <v>544</v>
+      </c>
+      <c r="L215" t="s">
+        <v>624</v>
+      </c>
+      <c r="M215" t="s">
+        <v>657</v>
+      </c>
+      <c r="N215" t="s">
+        <v>746</v>
+      </c>
+      <c r="O215">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:16">
       <c r="A216" t="s">
@@ -8753,6 +12434,27 @@
       <c r="H216" t="s">
         <v>242</v>
       </c>
+      <c r="I216" t="s">
+        <v>443</v>
+      </c>
+      <c r="J216" t="s">
+        <v>515</v>
+      </c>
+      <c r="K216" t="s">
+        <v>594</v>
+      </c>
+      <c r="L216" t="s">
+        <v>616</v>
+      </c>
+      <c r="M216" t="s">
+        <v>631</v>
+      </c>
+      <c r="N216" t="s">
+        <v>746</v>
+      </c>
+      <c r="O216">
+        <v>55</v>
+      </c>
       <c r="P216">
         <v>102</v>
       </c>
@@ -8782,6 +12484,27 @@
       <c r="H217" t="s">
         <v>242</v>
       </c>
+      <c r="I217" t="s">
+        <v>443</v>
+      </c>
+      <c r="J217" t="s">
+        <v>515</v>
+      </c>
+      <c r="K217" t="s">
+        <v>594</v>
+      </c>
+      <c r="L217" t="s">
+        <v>616</v>
+      </c>
+      <c r="M217" t="s">
+        <v>631</v>
+      </c>
+      <c r="N217" t="s">
+        <v>746</v>
+      </c>
+      <c r="O217">
+        <v>55</v>
+      </c>
       <c r="P217">
         <v>76</v>
       </c>
@@ -8812,25 +12535,25 @@
         <v>243</v>
       </c>
       <c r="I218" t="s">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="J218" t="s">
-        <v>339</v>
+        <v>520</v>
       </c>
       <c r="K218" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
       <c r="L218" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M218" t="s">
-        <v>425</v>
+        <v>744</v>
       </c>
       <c r="N218" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O218">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="P218">
         <v>31</v>
@@ -8862,25 +12585,25 @@
         <v>243</v>
       </c>
       <c r="I219" t="s">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="J219" t="s">
-        <v>339</v>
+        <v>520</v>
       </c>
       <c r="K219" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
       <c r="L219" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M219" t="s">
-        <v>425</v>
+        <v>744</v>
       </c>
       <c r="N219" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O219">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="P219">
         <v>8</v>
@@ -8912,25 +12635,25 @@
         <v>243</v>
       </c>
       <c r="I220" t="s">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="J220" t="s">
-        <v>339</v>
+        <v>520</v>
       </c>
       <c r="K220" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
       <c r="L220" t="s">
-        <v>379</v>
+        <v>625</v>
       </c>
       <c r="M220" t="s">
-        <v>425</v>
+        <v>744</v>
       </c>
       <c r="N220" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="O220">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="P220">
         <v>61</v>
@@ -8960,6 +12683,27 @@
       </c>
       <c r="H221" t="s">
         <v>249</v>
+      </c>
+      <c r="I221" t="s">
+        <v>296</v>
+      </c>
+      <c r="J221" t="s">
+        <v>477</v>
+      </c>
+      <c r="K221" t="s">
+        <v>545</v>
+      </c>
+      <c r="L221" t="s">
+        <v>620</v>
+      </c>
+      <c r="M221" t="s">
+        <v>660</v>
+      </c>
+      <c r="N221" t="s">
+        <v>746</v>
+      </c>
+      <c r="O221">
+        <v>184</v>
       </c>
       <c r="P221">
         <v>90</v>
